--- a/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9882935117295265</v>
+        <v>1.049357497249513</v>
       </c>
       <c r="D2">
-        <v>1.008256387461448</v>
+        <v>1.064753366160804</v>
       </c>
       <c r="E2">
-        <v>0.9956134211605968</v>
+        <v>1.057619592402677</v>
       </c>
       <c r="F2">
-        <v>0.9849057665429899</v>
+        <v>1.070310359074583</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03952336100564</v>
+        <v>1.072639673037814</v>
       </c>
       <c r="J2">
-        <v>1.010830089949861</v>
+        <v>1.070155890064835</v>
       </c>
       <c r="K2">
-        <v>1.019601883704335</v>
+        <v>1.075378691872349</v>
       </c>
       <c r="L2">
-        <v>1.007134208182394</v>
+        <v>1.068330578909176</v>
       </c>
       <c r="M2">
-        <v>0.9965794719028984</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.080869937205578</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963560306824588</v>
+        <v>1.057526087023359</v>
       </c>
       <c r="D3">
-        <v>1.01423367079963</v>
+        <v>1.071357998464165</v>
       </c>
       <c r="E3">
-        <v>1.002601248288014</v>
+        <v>1.064760967124227</v>
       </c>
       <c r="F3">
-        <v>0.9939513586231608</v>
+        <v>1.077473173797674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042319817626544</v>
+        <v>1.075933875230226</v>
       </c>
       <c r="J3">
-        <v>1.016946529322243</v>
+        <v>1.076562569537289</v>
       </c>
       <c r="K3">
-        <v>1.024687611711626</v>
+        <v>1.081152538717396</v>
       </c>
       <c r="L3">
-        <v>1.013200953504873</v>
+        <v>1.074627218062677</v>
       </c>
       <c r="M3">
-        <v>1.004662222483248</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.087202201455785</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001396145738773</v>
+        <v>1.062645214894571</v>
       </c>
       <c r="D4">
-        <v>1.01797211821914</v>
+        <v>1.075498870268385</v>
       </c>
       <c r="E4">
-        <v>1.006974731643718</v>
+        <v>1.069237373447548</v>
       </c>
       <c r="F4">
-        <v>0.9996122071764875</v>
+        <v>1.081965704774472</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044051892451295</v>
+        <v>1.077984529405118</v>
       </c>
       <c r="J4">
-        <v>1.020764205265855</v>
+        <v>1.080571706546924</v>
       </c>
       <c r="K4">
-        <v>1.027858368616165</v>
+        <v>1.084764106799118</v>
       </c>
       <c r="L4">
-        <v>1.016989700394453</v>
+        <v>1.078566251325563</v>
       </c>
       <c r="M4">
-        <v>1.009715314770272</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.09116615267773</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003475317827405</v>
+        <v>1.064759802130774</v>
       </c>
       <c r="D5">
-        <v>1.019514632194668</v>
+        <v>1.077209712800664</v>
       </c>
       <c r="E5">
-        <v>1.008780058336469</v>
+        <v>1.071086637281267</v>
       </c>
       <c r="F5">
-        <v>1.001949002332477</v>
+        <v>1.083822259725268</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044762485751751</v>
+        <v>1.07882824737871</v>
       </c>
       <c r="J5">
-        <v>1.022337614121635</v>
+        <v>1.082226330440896</v>
       </c>
       <c r="K5">
-        <v>1.029164260115631</v>
+        <v>1.086254255718411</v>
       </c>
       <c r="L5">
-        <v>1.018551686562518</v>
+        <v>1.08019163745696</v>
       </c>
       <c r="M5">
-        <v>1.011799950145206</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.092802441977045</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003822164724591</v>
+        <v>1.065112716811833</v>
       </c>
       <c r="D6">
-        <v>1.019771968478757</v>
+        <v>1.077495262278886</v>
       </c>
       <c r="E6">
-        <v>1.009081288029579</v>
+        <v>1.071395278615172</v>
       </c>
       <c r="F6">
-        <v>1.002338919262503</v>
+        <v>1.08413215458307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044880793421001</v>
+        <v>1.07896886097464</v>
       </c>
       <c r="J6">
-        <v>1.022600001075652</v>
+        <v>1.082502392415757</v>
       </c>
       <c r="K6">
-        <v>1.029381981110645</v>
+        <v>1.086502852581755</v>
       </c>
       <c r="L6">
-        <v>1.018812198034572</v>
+        <v>1.080462803197981</v>
       </c>
       <c r="M6">
-        <v>1.012147715722314</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.093075462963712</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001424080387268</v>
+        <v>1.062673614468828</v>
       </c>
       <c r="D7">
-        <v>1.017992841553749</v>
+        <v>1.075521846162399</v>
       </c>
       <c r="E7">
-        <v>1.006998982580825</v>
+        <v>1.069262209069493</v>
       </c>
       <c r="F7">
-        <v>0.9996435968614437</v>
+        <v>1.081990635841024</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044061455270179</v>
+        <v>1.077995874165719</v>
       </c>
       <c r="J7">
-        <v>1.020785350681319</v>
+        <v>1.080593934491083</v>
       </c>
       <c r="K7">
-        <v>1.027875922407695</v>
+        <v>1.084784126794897</v>
       </c>
       <c r="L7">
-        <v>1.017010690316737</v>
+        <v>1.078588087710995</v>
       </c>
       <c r="M7">
-        <v>1.00974332234709</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.091188133095335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9910565821144111</v>
+        <v>1.052154078160633</v>
       </c>
       <c r="D8">
-        <v>1.010304350776596</v>
+        <v>1.067014061594123</v>
       </c>
       <c r="E8">
-        <v>0.9980070329389564</v>
+        <v>1.060064234729649</v>
       </c>
       <c r="F8">
-        <v>0.9880044781338793</v>
+        <v>1.072761764028215</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040485077460031</v>
+        <v>1.073770345530901</v>
       </c>
       <c r="J8">
-        <v>1.01292743342497</v>
+        <v>1.072350464158409</v>
       </c>
       <c r="K8">
-        <v>1.021346528955446</v>
+        <v>1.077356810041037</v>
       </c>
       <c r="L8">
-        <v>1.009214068077986</v>
+        <v>1.070487717930322</v>
       </c>
       <c r="M8">
-        <v>0.9993494260290118</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.08303871741348</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9712982102252151</v>
+        <v>1.032223175221293</v>
       </c>
       <c r="D9">
-        <v>0.9956742712078072</v>
+        <v>1.050914830357824</v>
       </c>
       <c r="E9">
-        <v>0.9809174770270556</v>
+        <v>1.042649510533641</v>
       </c>
       <c r="F9">
-        <v>0.9658695496820286</v>
+        <v>1.055311194011532</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033541174455821</v>
+        <v>1.065654778989509</v>
       </c>
       <c r="J9">
-        <v>0.9979068668998865</v>
+        <v>1.056687204227386</v>
       </c>
       <c r="K9">
-        <v>1.008837922397676</v>
+        <v>1.063232535670103</v>
       </c>
       <c r="L9">
-        <v>0.9943279329888358</v>
+        <v>1.055086553732659</v>
       </c>
       <c r="M9">
-        <v>0.9795417556496955</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.067566385812784</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9569060288404025</v>
+        <v>1.017808629209834</v>
       </c>
       <c r="D10">
-        <v>0.9850448388224268</v>
+        <v>1.039293175390675</v>
       </c>
       <c r="E10">
-        <v>0.9685094285778676</v>
+        <v>1.030069542424425</v>
       </c>
       <c r="F10">
-        <v>0.9497719828186707</v>
+        <v>1.042722019008676</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028401282216277</v>
+        <v>1.059714614921407</v>
       </c>
       <c r="J10">
-        <v>0.9869402710251948</v>
+        <v>1.045333071659327</v>
       </c>
       <c r="K10">
-        <v>0.9996894672895019</v>
+        <v>1.052987459148034</v>
       </c>
       <c r="L10">
-        <v>0.9834715248345325</v>
+        <v>1.043916307403796</v>
       </c>
       <c r="M10">
-        <v>0.965111469079747</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.056360501783999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9503249766689109</v>
+        <v>1.011248749692206</v>
       </c>
       <c r="D11">
-        <v>0.9801939549935216</v>
+        <v>1.034011564970502</v>
       </c>
       <c r="E11">
-        <v>0.9628472754880929</v>
+        <v>1.024349784426219</v>
       </c>
       <c r="F11">
-        <v>0.9424154389518813</v>
+        <v>1.037002350853885</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026032998658909</v>
+        <v>1.056995567915336</v>
       </c>
       <c r="J11">
-        <v>0.981920959781633</v>
+        <v>1.040160941042556</v>
       </c>
       <c r="K11">
-        <v>0.9954993062452503</v>
+        <v>1.048319364920775</v>
       </c>
       <c r="L11">
-        <v>0.9785055791180124</v>
+        <v>1.038826659019095</v>
       </c>
       <c r="M11">
-        <v>0.9585116449055407</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.051258639429352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9478218998841462</v>
+        <v>1.008759184009385</v>
       </c>
       <c r="D12">
-        <v>0.9783506895059421</v>
+        <v>1.032008416035174</v>
       </c>
       <c r="E12">
-        <v>0.9606956511417907</v>
+        <v>1.022180011166386</v>
       </c>
       <c r="F12">
-        <v>0.9396178690164962</v>
+        <v>1.034833283561641</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025129674722998</v>
+        <v>1.055961389936388</v>
       </c>
       <c r="J12">
-        <v>0.9800113226730217</v>
+        <v>1.038197410615572</v>
       </c>
       <c r="K12">
-        <v>0.9939047513048938</v>
+        <v>1.046547046356995</v>
       </c>
       <c r="L12">
-        <v>0.9766166938115028</v>
+        <v>1.036894266530408</v>
       </c>
       <c r="M12">
-        <v>0.956001138492254</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.04932223563753</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9483615789605057</v>
+        <v>1.009295690259606</v>
       </c>
       <c r="D13">
-        <v>0.9787480248837388</v>
+        <v>1.032440036504644</v>
       </c>
       <c r="E13">
-        <v>0.9611594631752275</v>
+        <v>1.022647555504139</v>
       </c>
       <c r="F13">
-        <v>0.9402210252087917</v>
+        <v>1.035300644960436</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025324549805511</v>
+        <v>1.056184357509192</v>
       </c>
       <c r="J13">
-        <v>0.980423075362903</v>
+        <v>1.038620581826265</v>
       </c>
       <c r="K13">
-        <v>0.9942485820981238</v>
+        <v>1.046929014074891</v>
       </c>
       <c r="L13">
-        <v>0.9770239516700223</v>
+        <v>1.037310734630144</v>
       </c>
       <c r="M13">
-        <v>0.9565424340929786</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.049739539647603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501193057114175</v>
+        <v>1.011044073586362</v>
       </c>
       <c r="D14">
-        <v>0.9800424616064933</v>
+        <v>1.033846851403698</v>
       </c>
       <c r="E14">
-        <v>0.9626704415908268</v>
+        <v>1.024171379207457</v>
       </c>
       <c r="F14">
-        <v>0.9421855621452575</v>
+        <v>1.036823989888063</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025958825866619</v>
+        <v>1.056910589613315</v>
       </c>
       <c r="J14">
-        <v>0.9817640606567879</v>
+        <v>1.039999524307155</v>
       </c>
       <c r="K14">
-        <v>0.9953683019392613</v>
+        <v>1.048173669800923</v>
       </c>
       <c r="L14">
-        <v>0.9783503758697418</v>
+        <v>1.038667805493584</v>
       </c>
       <c r="M14">
-        <v>0.9583053699033539</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.05109944334132</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9511943358676321</v>
+        <v>1.012114129889201</v>
       </c>
       <c r="D15">
-        <v>0.9808343816021409</v>
+        <v>1.034708035561996</v>
       </c>
       <c r="E15">
-        <v>0.9635948226109774</v>
+        <v>1.025104129892882</v>
       </c>
       <c r="F15">
-        <v>0.9433871324069385</v>
+        <v>1.037756536670078</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026346419959099</v>
+        <v>1.05735476901183</v>
       </c>
       <c r="J15">
-        <v>0.9825841413406485</v>
+        <v>1.040843393556484</v>
       </c>
       <c r="K15">
-        <v>0.9960530208065802</v>
+        <v>1.048935342738109</v>
       </c>
       <c r="L15">
-        <v>0.9791616107787434</v>
+        <v>1.039498267552906</v>
       </c>
       <c r="M15">
-        <v>0.9593835450521685</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.051931721805889</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9573349353958079</v>
+        <v>1.0182368612512</v>
       </c>
       <c r="D16">
-        <v>0.9853612076290447</v>
+        <v>1.039638127897907</v>
       </c>
       <c r="E16">
-        <v>0.9688787038749181</v>
+        <v>1.030443052526</v>
       </c>
       <c r="F16">
-        <v>0.9502515045961965</v>
+        <v>1.043095613958377</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028555271408838</v>
+        <v>1.059891798876543</v>
       </c>
       <c r="J16">
-        <v>0.9872673094084368</v>
+        <v>1.045670616912537</v>
       </c>
       <c r="K16">
-        <v>0.9999624259248412</v>
+        <v>1.053292088667788</v>
       </c>
       <c r="L16">
-        <v>0.9837951471658867</v>
+        <v>1.044248444585618</v>
       </c>
       <c r="M16">
-        <v>0.9655415643657265</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.056693520806782</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.961089277554392</v>
+        <v>1.021988893106425</v>
       </c>
       <c r="D17">
-        <v>0.9881315831570809</v>
+        <v>1.042661329641593</v>
       </c>
       <c r="E17">
-        <v>0.9721124021867662</v>
+        <v>1.033716234224966</v>
       </c>
       <c r="F17">
-        <v>0.9544493625964956</v>
+        <v>1.046370023682172</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029901180530812</v>
+        <v>1.061442467092975</v>
       </c>
       <c r="J17">
-        <v>0.990129461727582</v>
+        <v>1.048627529385011</v>
       </c>
       <c r="K17">
-        <v>1.002350958808499</v>
+        <v>1.05596053017672</v>
       </c>
       <c r="L17">
-        <v>0.9866277328521725</v>
+        <v>1.0471578395742</v>
       </c>
       <c r="M17">
-        <v>0.9693061520064699</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.059611095147097</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9632458976959943</v>
+        <v>1.024147062636712</v>
       </c>
       <c r="D18">
-        <v>0.989723853605355</v>
+        <v>1.044400941169715</v>
       </c>
       <c r="E18">
-        <v>0.9739710174701898</v>
+        <v>1.035599446554356</v>
       </c>
       <c r="F18">
-        <v>0.9568611702804033</v>
+        <v>1.048254341096175</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030672626556759</v>
+        <v>1.062332929465054</v>
       </c>
       <c r="J18">
-        <v>0.9917731330963201</v>
+        <v>1.050327868948589</v>
       </c>
       <c r="K18">
-        <v>1.00372235605056</v>
+        <v>1.057494875638611</v>
       </c>
       <c r="L18">
-        <v>0.9882546979102499</v>
+        <v>1.048830733389543</v>
       </c>
       <c r="M18">
-        <v>0.9714685380462214</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.061289067111707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9639757840513389</v>
+        <v>1.024877941992452</v>
       </c>
       <c r="D19">
-        <v>0.9902628813310999</v>
+        <v>1.044990180111295</v>
       </c>
       <c r="E19">
-        <v>0.9746002230509733</v>
+        <v>1.036237286091536</v>
       </c>
       <c r="F19">
-        <v>0.9576774980270183</v>
+        <v>1.048892621707551</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030933424139863</v>
+        <v>1.062634236509527</v>
       </c>
       <c r="J19">
-        <v>0.9923293378606549</v>
+        <v>1.050903616806658</v>
       </c>
       <c r="K19">
-        <v>1.004186375119447</v>
+        <v>1.058014396600616</v>
       </c>
       <c r="L19">
-        <v>0.9888052955312644</v>
+        <v>1.049397166858889</v>
       </c>
       <c r="M19">
-        <v>0.9722003578531248</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.061857283038891</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9606899497645865</v>
+        <v>1.021589507050085</v>
       </c>
       <c r="D20">
-        <v>0.9878368212986892</v>
+        <v>1.042339453562997</v>
       </c>
       <c r="E20">
-        <v>0.9717683395551301</v>
+        <v>1.033367768727559</v>
       </c>
       <c r="F20">
-        <v>0.9540028183862208</v>
+        <v>1.046021385809056</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029758198715239</v>
+        <v>1.061277559240047</v>
       </c>
       <c r="J20">
-        <v>0.9898250764259829</v>
+        <v>1.048312828867124</v>
       </c>
       <c r="K20">
-        <v>1.002096971313327</v>
+        <v>1.055676542675024</v>
       </c>
       <c r="L20">
-        <v>0.9863264634416341</v>
+        <v>1.046848208790139</v>
       </c>
       <c r="M20">
-        <v>0.9689057474533571</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.059300554729131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496033705011917</v>
+        <v>1.010530724464804</v>
       </c>
       <c r="D21">
-        <v>0.9796624625659212</v>
+        <v>1.033433754082615</v>
       </c>
       <c r="E21">
-        <v>0.9622268776086751</v>
+        <v>1.023723936178182</v>
       </c>
       <c r="F21">
-        <v>0.9416089121517615</v>
+        <v>1.03637666874851</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025772719418127</v>
+        <v>1.0566974191651</v>
       </c>
       <c r="J21">
-        <v>0.9813704633429547</v>
+        <v>1.03959466444752</v>
       </c>
       <c r="K21">
-        <v>0.9950396586531265</v>
+        <v>1.047808240254897</v>
       </c>
       <c r="L21">
-        <v>0.9779610400640878</v>
+        <v>1.038269371835692</v>
       </c>
       <c r="M21">
-        <v>0.9577879144384271</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.050700160608054</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9422900265905518</v>
+        <v>1.00326823839793</v>
       </c>
       <c r="D22">
-        <v>0.9742806323601704</v>
+        <v>1.027592948412411</v>
       </c>
       <c r="E22">
-        <v>0.9559443654483509</v>
+        <v>1.017396366741357</v>
       </c>
       <c r="F22">
-        <v>0.9334357707281643</v>
+        <v>1.030052471783639</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023128753359309</v>
+        <v>1.053676374680527</v>
       </c>
       <c r="J22">
-        <v>0.9757900999516262</v>
+        <v>1.033865652277436</v>
       </c>
       <c r="K22">
-        <v>0.9903794126148626</v>
+        <v>1.042636910286847</v>
       </c>
       <c r="L22">
-        <v>0.9724421819486614</v>
+        <v>1.032630900116637</v>
       </c>
       <c r="M22">
-        <v>0.9504521967105717</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.045051201349402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9462017890806116</v>
+        <v>1.007149464776915</v>
       </c>
       <c r="D23">
-        <v>0.9771581754462291</v>
+        <v>1.030713600598796</v>
       </c>
       <c r="E23">
-        <v>0.9593035962934781</v>
+        <v>1.02077735773948</v>
       </c>
       <c r="F23">
-        <v>0.9378072518558048</v>
+        <v>1.033431279893896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024544299243824</v>
+        <v>1.055292081182337</v>
       </c>
       <c r="J23">
-        <v>0.9787751748241353</v>
+        <v>1.036927655760222</v>
       </c>
       <c r="K23">
-        <v>0.9928724673602815</v>
+        <v>1.045400908204736</v>
       </c>
       <c r="L23">
-        <v>0.9753941066039432</v>
+        <v>1.035644600646662</v>
       </c>
       <c r="M23">
-        <v>0.9543761246931011</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.048070155034394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.960870491025512</v>
+        <v>1.021770065759468</v>
       </c>
       <c r="D24">
-        <v>0.9879700842535754</v>
+        <v>1.042484968681754</v>
       </c>
       <c r="E24">
-        <v>0.97192389140854</v>
+        <v>1.033525305255309</v>
       </c>
       <c r="F24">
-        <v>0.9542047054912605</v>
+        <v>1.046178999028976</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029822847908848</v>
+        <v>1.061352117156894</v>
       </c>
       <c r="J24">
-        <v>0.9899626943534167</v>
+        <v>1.048455103526396</v>
       </c>
       <c r="K24">
-        <v>1.002211804401057</v>
+        <v>1.055804932471843</v>
       </c>
       <c r="L24">
-        <v>0.9864626717710024</v>
+        <v>1.046988191824507</v>
       </c>
       <c r="M24">
-        <v>0.9690867758983828</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.059440947841522</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9766033797157884</v>
+        <v>1.037559095631235</v>
       </c>
       <c r="D25">
-        <v>0.9995987822732454</v>
+        <v>1.055221863604419</v>
       </c>
       <c r="E25">
-        <v>0.9854998856922645</v>
+        <v>1.047309783281329</v>
       </c>
       <c r="F25">
-        <v>0.9718079868612206</v>
+        <v>1.059978322575391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035419885350052</v>
+        <v>1.067839790535752</v>
       </c>
       <c r="J25">
-        <v>1.001944628809486</v>
+        <v>1.06088534663366</v>
       </c>
       <c r="K25">
-        <v>1.012203329824569</v>
+        <v>1.067019411779302</v>
       </c>
       <c r="L25">
-        <v>0.9983275466240213</v>
+        <v>1.05921552821869</v>
       </c>
       <c r="M25">
-        <v>0.9848603033274299</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.071711803510733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049357497249513</v>
+        <v>1.021741840829926</v>
       </c>
       <c r="D2">
-        <v>1.064753366160804</v>
+        <v>1.038542255507636</v>
       </c>
       <c r="E2">
-        <v>1.057619592402677</v>
+        <v>1.035037945167127</v>
       </c>
       <c r="F2">
-        <v>1.070310359074583</v>
+        <v>1.045405090919952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.072639673037814</v>
+        <v>1.053175627420917</v>
       </c>
       <c r="J2">
-        <v>1.070155890064835</v>
+        <v>1.043291149533285</v>
       </c>
       <c r="K2">
-        <v>1.075378691872349</v>
+        <v>1.049489532037716</v>
       </c>
       <c r="L2">
-        <v>1.068330578909176</v>
+        <v>1.046029808661904</v>
       </c>
       <c r="M2">
-        <v>1.080869937205578</v>
+        <v>1.056266127604846</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057526087023359</v>
+        <v>1.025553081401793</v>
       </c>
       <c r="D3">
-        <v>1.071357998464165</v>
+        <v>1.041329928732902</v>
       </c>
       <c r="E3">
-        <v>1.064760967124227</v>
+        <v>1.038116082695819</v>
       </c>
       <c r="F3">
-        <v>1.077473173797674</v>
+        <v>1.048629708354756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075933875230226</v>
+        <v>1.054231417394779</v>
       </c>
       <c r="J3">
-        <v>1.076562569537289</v>
+        <v>1.045370579606779</v>
       </c>
       <c r="K3">
-        <v>1.081152538717396</v>
+        <v>1.051459946621063</v>
       </c>
       <c r="L3">
-        <v>1.074627218062677</v>
+        <v>1.048283427245871</v>
       </c>
       <c r="M3">
-        <v>1.087202201455785</v>
+        <v>1.058675992730659</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062645214894571</v>
+        <v>1.027976796877103</v>
       </c>
       <c r="D4">
-        <v>1.075498870268385</v>
+        <v>1.043105963540191</v>
       </c>
       <c r="E4">
-        <v>1.069237373447548</v>
+        <v>1.040079037496991</v>
       </c>
       <c r="F4">
-        <v>1.081965704774472</v>
+        <v>1.050685637168853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077984529405118</v>
+        <v>1.054895425914856</v>
       </c>
       <c r="J4">
-        <v>1.080571706546924</v>
+        <v>1.046690952389409</v>
       </c>
       <c r="K4">
-        <v>1.084764106799118</v>
+        <v>1.052710550609599</v>
       </c>
       <c r="L4">
-        <v>1.078566251325563</v>
+        <v>1.049716660257172</v>
       </c>
       <c r="M4">
-        <v>1.09116615267773</v>
+        <v>1.060208523097302</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064759802130774</v>
+        <v>1.028985871502991</v>
       </c>
       <c r="D5">
-        <v>1.077209712800664</v>
+        <v>1.043846127336696</v>
       </c>
       <c r="E5">
-        <v>1.071086637281267</v>
+        <v>1.040897556411831</v>
       </c>
       <c r="F5">
-        <v>1.083822259725268</v>
+        <v>1.051542819695709</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07882824737871</v>
+        <v>1.055170068621178</v>
       </c>
       <c r="J5">
-        <v>1.082226330440896</v>
+        <v>1.047240158105133</v>
       </c>
       <c r="K5">
-        <v>1.086254255718411</v>
+        <v>1.053230598515769</v>
       </c>
       <c r="L5">
-        <v>1.08019163745696</v>
+        <v>1.050313351756399</v>
       </c>
       <c r="M5">
-        <v>1.092802441977045</v>
+        <v>1.060846535951042</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065112716811833</v>
+        <v>1.029154730098497</v>
       </c>
       <c r="D6">
-        <v>1.077495262278886</v>
+        <v>1.043970028812431</v>
       </c>
       <c r="E6">
-        <v>1.071395278615172</v>
+        <v>1.041034601383969</v>
       </c>
       <c r="F6">
-        <v>1.08413215458307</v>
+        <v>1.051686331964261</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07896886097464</v>
+        <v>1.055215920344459</v>
       </c>
       <c r="J6">
-        <v>1.082502392415757</v>
+        <v>1.047332031488825</v>
       </c>
       <c r="K6">
-        <v>1.086502852581755</v>
+        <v>1.05331758598783</v>
       </c>
       <c r="L6">
-        <v>1.080462803197981</v>
+        <v>1.050413200628106</v>
       </c>
       <c r="M6">
-        <v>1.093075462963712</v>
+        <v>1.06095329828962</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062673614468828</v>
+        <v>1.027990318519338</v>
       </c>
       <c r="D7">
-        <v>1.075521846162399</v>
+        <v>1.043115878892471</v>
       </c>
       <c r="E7">
-        <v>1.069262209069493</v>
+        <v>1.040090000695798</v>
       </c>
       <c r="F7">
-        <v>1.081990635841024</v>
+        <v>1.050697118640161</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077995874165719</v>
+        <v>1.054899113307267</v>
       </c>
       <c r="J7">
-        <v>1.080593934491083</v>
+        <v>1.046698313816491</v>
       </c>
       <c r="K7">
-        <v>1.084784126794897</v>
+        <v>1.052717521763993</v>
       </c>
       <c r="L7">
-        <v>1.078588087710995</v>
+        <v>1.049724656032031</v>
       </c>
       <c r="M7">
-        <v>1.091188133095335</v>
+        <v>1.060217072661753</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.052154078160633</v>
+        <v>1.023038832488908</v>
       </c>
       <c r="D8">
-        <v>1.067014061594123</v>
+        <v>1.039490217430816</v>
       </c>
       <c r="E8">
-        <v>1.060064234729649</v>
+        <v>1.036084296667482</v>
       </c>
       <c r="F8">
-        <v>1.072761764028215</v>
+        <v>1.046501326693873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.073770345530901</v>
+        <v>1.053536452665166</v>
       </c>
       <c r="J8">
-        <v>1.072350464158409</v>
+        <v>1.043999200084655</v>
       </c>
       <c r="K8">
-        <v>1.077356810041037</v>
+        <v>1.050160573336139</v>
       </c>
       <c r="L8">
-        <v>1.070487717930322</v>
+        <v>1.046796698541884</v>
       </c>
       <c r="M8">
-        <v>1.08303871741348</v>
+        <v>1.057086200771421</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032223175221293</v>
+        <v>1.013974851034474</v>
       </c>
       <c r="D9">
-        <v>1.050914830357824</v>
+        <v>1.032880718637355</v>
       </c>
       <c r="E9">
-        <v>1.042649510533641</v>
+        <v>1.028796270410844</v>
       </c>
       <c r="F9">
-        <v>1.055311194011532</v>
+        <v>1.0388640132627</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065654778989509</v>
+        <v>1.050984777818156</v>
       </c>
       <c r="J9">
-        <v>1.056687204227386</v>
+        <v>1.03904359242624</v>
       </c>
       <c r="K9">
-        <v>1.063232535670103</v>
+        <v>1.045461939495518</v>
       </c>
       <c r="L9">
-        <v>1.055086553732659</v>
+        <v>1.041438807317059</v>
       </c>
       <c r="M9">
-        <v>1.067566385812784</v>
+        <v>1.051356517994944</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017808629209834</v>
+        <v>1.007683844769608</v>
       </c>
       <c r="D10">
-        <v>1.039293175390675</v>
+        <v>1.028314524513621</v>
       </c>
       <c r="E10">
-        <v>1.030069542424425</v>
+        <v>1.023770384880818</v>
       </c>
       <c r="F10">
-        <v>1.042722019008676</v>
+        <v>1.03359493831085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059714614921407</v>
+        <v>1.0491769525538</v>
       </c>
       <c r="J10">
-        <v>1.045333071659327</v>
+        <v>1.035595884227368</v>
       </c>
       <c r="K10">
-        <v>1.052987459148034</v>
+        <v>1.042190702074935</v>
       </c>
       <c r="L10">
-        <v>1.043916307403796</v>
+        <v>1.03772332322447</v>
       </c>
       <c r="M10">
-        <v>1.056360501783999</v>
+        <v>1.047383009295371</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011248749692206</v>
+        <v>1.004895988791617</v>
       </c>
       <c r="D11">
-        <v>1.034011564970502</v>
+        <v>1.026296672262496</v>
       </c>
       <c r="E11">
-        <v>1.024349784426219</v>
+        <v>1.02155141223997</v>
       </c>
       <c r="F11">
-        <v>1.037002350853885</v>
+        <v>1.031268047243796</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056995567915336</v>
+        <v>1.048367522318006</v>
       </c>
       <c r="J11">
-        <v>1.040160941042556</v>
+        <v>1.034066497857598</v>
       </c>
       <c r="K11">
-        <v>1.048319364920775</v>
+        <v>1.040739145592942</v>
       </c>
       <c r="L11">
-        <v>1.038826659019095</v>
+        <v>1.036078031916954</v>
       </c>
       <c r="M11">
-        <v>1.051258639429352</v>
+        <v>1.045623439936339</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008759184009385</v>
+        <v>1.00385042716223</v>
       </c>
       <c r="D12">
-        <v>1.032008416035174</v>
+        <v>1.025540797891217</v>
       </c>
       <c r="E12">
-        <v>1.022180011166386</v>
+        <v>1.020720492171676</v>
       </c>
       <c r="F12">
-        <v>1.034833283561641</v>
+        <v>1.030396633703534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055961389936388</v>
+        <v>1.048062744199852</v>
       </c>
       <c r="J12">
-        <v>1.038197410615572</v>
+        <v>1.033492719247493</v>
       </c>
       <c r="K12">
-        <v>1.046547046356995</v>
+        <v>1.040194506901859</v>
       </c>
       <c r="L12">
-        <v>1.036894266530408</v>
+        <v>1.03546120308463</v>
       </c>
       <c r="M12">
-        <v>1.04932223563753</v>
+        <v>1.044963767229792</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009295690259606</v>
+        <v>1.004075164816883</v>
       </c>
       <c r="D13">
-        <v>1.032440036504644</v>
+        <v>1.025703227133729</v>
       </c>
       <c r="E13">
-        <v>1.022647555504139</v>
+        <v>1.020899034875631</v>
       </c>
       <c r="F13">
-        <v>1.035300644960436</v>
+        <v>1.030583881092091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056184357509192</v>
+        <v>1.048128308545139</v>
       </c>
       <c r="J13">
-        <v>1.038620581826265</v>
+        <v>1.033616058009612</v>
       </c>
       <c r="K13">
-        <v>1.046929014074891</v>
+        <v>1.040311584331181</v>
       </c>
       <c r="L13">
-        <v>1.037310734630144</v>
+        <v>1.035593776247301</v>
       </c>
       <c r="M13">
-        <v>1.049739539647603</v>
+        <v>1.045105548673223</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011044073586362</v>
+        <v>1.004809769542992</v>
       </c>
       <c r="D14">
-        <v>1.033846851403698</v>
+        <v>1.026234322539108</v>
       </c>
       <c r="E14">
-        <v>1.024171379207457</v>
+        <v>1.021482866340497</v>
       </c>
       <c r="F14">
-        <v>1.036823989888063</v>
+        <v>1.031196162547507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056910589613315</v>
+        <v>1.048342414013921</v>
       </c>
       <c r="J14">
-        <v>1.039999524307155</v>
+        <v>1.034019186608769</v>
       </c>
       <c r="K14">
-        <v>1.048173669800923</v>
+        <v>1.040694238252863</v>
       </c>
       <c r="L14">
-        <v>1.038667805493584</v>
+        <v>1.036027162108351</v>
       </c>
       <c r="M14">
-        <v>1.05109944334132</v>
+        <v>1.045569036790998</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012114129889201</v>
+        <v>1.005261041368353</v>
       </c>
       <c r="D15">
-        <v>1.034708035561996</v>
+        <v>1.026560698396824</v>
       </c>
       <c r="E15">
-        <v>1.025104129892882</v>
+        <v>1.021841688580455</v>
       </c>
       <c r="F15">
-        <v>1.037756536670078</v>
+        <v>1.031572459278991</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05735476901183</v>
+        <v>1.04847378189777</v>
       </c>
       <c r="J15">
-        <v>1.040843393556484</v>
+        <v>1.034266806085596</v>
       </c>
       <c r="K15">
-        <v>1.048935342738109</v>
+        <v>1.040929273682914</v>
       </c>
       <c r="L15">
-        <v>1.039498267552906</v>
+        <v>1.036293424215214</v>
       </c>
       <c r="M15">
-        <v>1.051931721805889</v>
+        <v>1.045853793043327</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0182368612512</v>
+        <v>1.007867484103481</v>
       </c>
       <c r="D16">
-        <v>1.039638127897907</v>
+        <v>1.028447565394655</v>
       </c>
       <c r="E16">
-        <v>1.030443052526</v>
+        <v>1.023916727344156</v>
       </c>
       <c r="F16">
-        <v>1.043095613958377</v>
+        <v>1.033748386608657</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059891798876543</v>
+        <v>1.049230100712209</v>
       </c>
       <c r="J16">
-        <v>1.045670616912537</v>
+        <v>1.035696597603784</v>
       </c>
       <c r="K16">
-        <v>1.053292088667788</v>
+        <v>1.042286281465411</v>
       </c>
       <c r="L16">
-        <v>1.044248444585618</v>
+        <v>1.037831729365749</v>
       </c>
       <c r="M16">
-        <v>1.056693520806782</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.047498944875105</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021988893106425</v>
+        <v>1.009485049451683</v>
       </c>
       <c r="D17">
-        <v>1.042661329641593</v>
+        <v>1.029620091995047</v>
       </c>
       <c r="E17">
-        <v>1.033716234224966</v>
+        <v>1.025206714318222</v>
       </c>
       <c r="F17">
-        <v>1.046370023682172</v>
+        <v>1.035100947790319</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061442467092975</v>
+        <v>1.049697308029045</v>
       </c>
       <c r="J17">
-        <v>1.048627529385011</v>
+        <v>1.03658354837204</v>
       </c>
       <c r="K17">
-        <v>1.05596053017672</v>
+        <v>1.043127968331243</v>
       </c>
       <c r="L17">
-        <v>1.0471578395742</v>
+        <v>1.038786756401465</v>
       </c>
       <c r="M17">
-        <v>1.059611095147097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.048520302171159</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024147062636712</v>
+        <v>1.010422422392931</v>
       </c>
       <c r="D18">
-        <v>1.044400941169715</v>
+        <v>1.030300101048731</v>
       </c>
       <c r="E18">
-        <v>1.035599446554356</v>
+        <v>1.025955038270471</v>
       </c>
       <c r="F18">
-        <v>1.048254341096175</v>
+        <v>1.035885518867056</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062332929465054</v>
+        <v>1.049967261105984</v>
       </c>
       <c r="J18">
-        <v>1.050327868948589</v>
+        <v>1.037097384344247</v>
       </c>
       <c r="K18">
-        <v>1.057494875638611</v>
+        <v>1.04361553810297</v>
       </c>
       <c r="L18">
-        <v>1.048830733389543</v>
+        <v>1.039340304643486</v>
       </c>
       <c r="M18">
-        <v>1.061289067111707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.049112294408644</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024877941992452</v>
+        <v>1.010741016340622</v>
       </c>
       <c r="D19">
-        <v>1.044990180111295</v>
+        <v>1.030531311305789</v>
       </c>
       <c r="E19">
-        <v>1.036237286091536</v>
+        <v>1.026209509471292</v>
       </c>
       <c r="F19">
-        <v>1.048892621707551</v>
+        <v>1.036152307203487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062634236509527</v>
+        <v>1.050058877234357</v>
       </c>
       <c r="J19">
-        <v>1.050903616806658</v>
+        <v>1.037272000461015</v>
       </c>
       <c r="K19">
-        <v>1.058014396600616</v>
+        <v>1.043781220585553</v>
       </c>
       <c r="L19">
-        <v>1.049397166858889</v>
+        <v>1.039528462524214</v>
       </c>
       <c r="M19">
-        <v>1.061857283038891</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.049313519458783</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021589507050085</v>
+        <v>1.009312136705105</v>
       </c>
       <c r="D20">
-        <v>1.042339453562997</v>
+        <v>1.029494696724733</v>
       </c>
       <c r="E20">
-        <v>1.033367768727559</v>
+        <v>1.025068737323924</v>
       </c>
       <c r="F20">
-        <v>1.046021385809056</v>
+        <v>1.034956283278719</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061277559240047</v>
+        <v>1.049647446845283</v>
       </c>
       <c r="J20">
-        <v>1.048312828867124</v>
+        <v>1.036488751230872</v>
       </c>
       <c r="K20">
-        <v>1.055676542675024</v>
+        <v>1.043038013442757</v>
       </c>
       <c r="L20">
-        <v>1.046848208790139</v>
+        <v>1.038684654884708</v>
       </c>
       <c r="M20">
-        <v>1.059300554729131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.048411109509024</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010530724464804</v>
+        <v>1.004593727244443</v>
       </c>
       <c r="D21">
-        <v>1.033433754082615</v>
+        <v>1.026078105622231</v>
       </c>
       <c r="E21">
-        <v>1.023723936178182</v>
+        <v>1.021311129616109</v>
       </c>
       <c r="F21">
-        <v>1.03637666874851</v>
+        <v>1.03101605938856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0566974191651</v>
+        <v>1.048279480000345</v>
       </c>
       <c r="J21">
-        <v>1.03959466444752</v>
+        <v>1.033900634291708</v>
       </c>
       <c r="K21">
-        <v>1.047808240254897</v>
+        <v>1.040581708710549</v>
       </c>
       <c r="L21">
-        <v>1.038269371835692</v>
+        <v>1.035899699762523</v>
       </c>
       <c r="M21">
-        <v>1.050700160608054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.045432721113935</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.00326823839793</v>
+        <v>1.001568821543274</v>
       </c>
       <c r="D22">
-        <v>1.027592948412411</v>
+        <v>1.023893064784645</v>
       </c>
       <c r="E22">
-        <v>1.017396366741357</v>
+        <v>1.018909691589397</v>
       </c>
       <c r="F22">
-        <v>1.030052471783639</v>
+        <v>1.028497436275043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053676374680527</v>
+        <v>1.047395486088302</v>
       </c>
       <c r="J22">
-        <v>1.033865652277436</v>
+        <v>1.032240311410172</v>
       </c>
       <c r="K22">
-        <v>1.042636910286847</v>
+        <v>1.039005604090997</v>
       </c>
       <c r="L22">
-        <v>1.032630900116637</v>
+        <v>1.034115626368876</v>
       </c>
       <c r="M22">
-        <v>1.045051201349402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.043524731233085</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007149464776915</v>
+        <v>1.003178056980046</v>
       </c>
       <c r="D23">
-        <v>1.030713600598796</v>
+        <v>1.025054978773361</v>
       </c>
       <c r="E23">
-        <v>1.02077735773948</v>
+        <v>1.020186520373706</v>
       </c>
       <c r="F23">
-        <v>1.033431279893896</v>
+        <v>1.029836616583763</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055292081182337</v>
+        <v>1.04786641470994</v>
       </c>
       <c r="J23">
-        <v>1.036927655760222</v>
+        <v>1.033123688483569</v>
       </c>
       <c r="K23">
-        <v>1.045400908204736</v>
+        <v>1.039844202053757</v>
       </c>
       <c r="L23">
-        <v>1.035644600646662</v>
+        <v>1.035064606565864</v>
       </c>
       <c r="M23">
-        <v>1.048070155034394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.044539624011573</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021770065759468</v>
+        <v>1.009390287430592</v>
       </c>
       <c r="D24">
-        <v>1.042484968681754</v>
+        <v>1.029551369502949</v>
       </c>
       <c r="E24">
-        <v>1.033525305255309</v>
+        <v>1.025131095850648</v>
       </c>
       <c r="F24">
-        <v>1.046178999028976</v>
+        <v>1.035021664382358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061352117156894</v>
+        <v>1.049669984873899</v>
       </c>
       <c r="J24">
-        <v>1.048455103526396</v>
+        <v>1.036531596802395</v>
       </c>
       <c r="K24">
-        <v>1.055804932471843</v>
+        <v>1.043078670591369</v>
       </c>
       <c r="L24">
-        <v>1.046988191824507</v>
+        <v>1.038730800974881</v>
       </c>
       <c r="M24">
-        <v>1.059440947841522</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.048460460539809</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037559095631235</v>
+        <v>1.016360309822588</v>
       </c>
       <c r="D25">
-        <v>1.055221863604419</v>
+        <v>1.034616729540312</v>
       </c>
       <c r="E25">
-        <v>1.047309783281329</v>
+        <v>1.03070888442636</v>
       </c>
       <c r="F25">
-        <v>1.059978322575391</v>
+        <v>1.04086869418154</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067839790535752</v>
+        <v>1.051662832325242</v>
       </c>
       <c r="J25">
-        <v>1.06088534663366</v>
+        <v>1.040349355698726</v>
       </c>
       <c r="K25">
-        <v>1.067019411779302</v>
+        <v>1.046700422513945</v>
       </c>
       <c r="L25">
-        <v>1.05921552821869</v>
+        <v>1.042848480086058</v>
       </c>
       <c r="M25">
-        <v>1.071711803510733</v>
+        <v>1.052864053871454</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.021741840829926</v>
+        <v>1.045888919939243</v>
       </c>
       <c r="D2">
-        <v>1.038542255507636</v>
+        <v>1.051881940192187</v>
       </c>
       <c r="E2">
-        <v>1.035037945167127</v>
+        <v>1.053268210991737</v>
       </c>
       <c r="F2">
-        <v>1.045405090919952</v>
+        <v>1.063311325738323</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053175627420917</v>
+        <v>1.044905204617403</v>
       </c>
       <c r="J2">
-        <v>1.043291149533285</v>
+        <v>1.050946246141701</v>
       </c>
       <c r="K2">
-        <v>1.049489532037716</v>
+        <v>1.054632212339488</v>
       </c>
       <c r="L2">
-        <v>1.046029808661904</v>
+        <v>1.056014648806957</v>
       </c>
       <c r="M2">
-        <v>1.056266127604846</v>
+        <v>1.066030308212694</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.025553081401793</v>
+        <v>1.046711308515427</v>
       </c>
       <c r="D3">
-        <v>1.041329928732902</v>
+        <v>1.052508943949808</v>
       </c>
       <c r="E3">
-        <v>1.038116082695819</v>
+        <v>1.053979968179239</v>
       </c>
       <c r="F3">
-        <v>1.048629708354756</v>
+        <v>1.064056309778269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054231417394779</v>
+        <v>1.045091769524372</v>
       </c>
       <c r="J3">
-        <v>1.045370579606779</v>
+        <v>1.051417107097216</v>
       </c>
       <c r="K3">
-        <v>1.051459946621063</v>
+        <v>1.055072428311692</v>
       </c>
       <c r="L3">
-        <v>1.048283427245871</v>
+        <v>1.056539676370491</v>
       </c>
       <c r="M3">
-        <v>1.058675992730659</v>
+        <v>1.066590454118423</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027976796877103</v>
+        <v>1.047244254333979</v>
       </c>
       <c r="D4">
-        <v>1.043105963540191</v>
+        <v>1.052915360384767</v>
       </c>
       <c r="E4">
-        <v>1.040079037496991</v>
+        <v>1.05444158529646</v>
       </c>
       <c r="F4">
-        <v>1.050685637168853</v>
+        <v>1.06453943265089</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054895425914856</v>
+        <v>1.045211735609935</v>
       </c>
       <c r="J4">
-        <v>1.046690952389409</v>
+        <v>1.051721900334248</v>
       </c>
       <c r="K4">
-        <v>1.052710550609599</v>
+        <v>1.055357287291028</v>
       </c>
       <c r="L4">
-        <v>1.049716660257172</v>
+        <v>1.056879790596831</v>
       </c>
       <c r="M4">
-        <v>1.060208523097302</v>
+        <v>1.066953303789797</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028985871502991</v>
+        <v>1.047468495697132</v>
       </c>
       <c r="D5">
-        <v>1.043846127336696</v>
+        <v>1.053086384250074</v>
       </c>
       <c r="E5">
-        <v>1.040897556411831</v>
+        <v>1.054635901507857</v>
       </c>
       <c r="F5">
-        <v>1.051542819695709</v>
+        <v>1.064742791170015</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055170068621178</v>
+        <v>1.045261988085564</v>
       </c>
       <c r="J5">
-        <v>1.047240158105133</v>
+        <v>1.051850061463763</v>
       </c>
       <c r="K5">
-        <v>1.053230598515769</v>
+        <v>1.055477042945489</v>
       </c>
       <c r="L5">
-        <v>1.050313351756399</v>
+        <v>1.057022865531827</v>
       </c>
       <c r="M5">
-        <v>1.060846535951042</v>
+        <v>1.067105939343361</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029154730098497</v>
+        <v>1.047506157951058</v>
       </c>
       <c r="D6">
-        <v>1.043970028812431</v>
+        <v>1.053115109611215</v>
       </c>
       <c r="E6">
-        <v>1.041034601383969</v>
+        <v>1.054668542795457</v>
       </c>
       <c r="F6">
-        <v>1.051686331964261</v>
+        <v>1.064776950773774</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055215920344459</v>
+        <v>1.045270415044979</v>
       </c>
       <c r="J6">
-        <v>1.047332031488825</v>
+        <v>1.051871581768096</v>
       </c>
       <c r="K6">
-        <v>1.05331758598783</v>
+        <v>1.055497150460956</v>
       </c>
       <c r="L6">
-        <v>1.050413200628106</v>
+        <v>1.057046893728763</v>
       </c>
       <c r="M6">
-        <v>1.06095329828962</v>
+        <v>1.06713157296132</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027990318519338</v>
+        <v>1.04724724991013</v>
       </c>
       <c r="D7">
-        <v>1.043115878892471</v>
+        <v>1.052917644962622</v>
       </c>
       <c r="E7">
-        <v>1.040090000695798</v>
+        <v>1.054444180770066</v>
       </c>
       <c r="F7">
-        <v>1.050697118640161</v>
+        <v>1.064542148943306</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054899113307267</v>
+        <v>1.045212407799208</v>
       </c>
       <c r="J7">
-        <v>1.046698313816491</v>
+        <v>1.051723612728933</v>
       </c>
       <c r="K7">
-        <v>1.052717521763993</v>
+        <v>1.055358887470021</v>
       </c>
       <c r="L7">
-        <v>1.049724656032031</v>
+        <v>1.056881702015849</v>
       </c>
       <c r="M7">
-        <v>1.060217072661753</v>
+        <v>1.066955342948058</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023038832488908</v>
+        <v>1.046166682111975</v>
       </c>
       <c r="D8">
-        <v>1.039490217430816</v>
+        <v>1.052093692315917</v>
       </c>
       <c r="E8">
-        <v>1.036084296667482</v>
+        <v>1.053508531429313</v>
       </c>
       <c r="F8">
-        <v>1.046501326693873</v>
+        <v>1.063562874098921</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053536452665166</v>
+        <v>1.04496841072533</v>
       </c>
       <c r="J8">
-        <v>1.043999200084655</v>
+        <v>1.05110535120631</v>
       </c>
       <c r="K8">
-        <v>1.050160573336139</v>
+        <v>1.054780982510441</v>
       </c>
       <c r="L8">
-        <v>1.046796698541884</v>
+        <v>1.056192003407663</v>
       </c>
       <c r="M8">
-        <v>1.057086200771421</v>
+        <v>1.06621952876059</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013974851034474</v>
+        <v>1.044268835320233</v>
       </c>
       <c r="D9">
-        <v>1.032880718637355</v>
+        <v>1.05064725219643</v>
       </c>
       <c r="E9">
-        <v>1.028796270410844</v>
+        <v>1.051868025452025</v>
       </c>
       <c r="F9">
-        <v>1.0388640132627</v>
+        <v>1.061845542554791</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050984777818156</v>
+        <v>1.044532717664341</v>
       </c>
       <c r="J9">
-        <v>1.03904359242624</v>
+        <v>1.050016836369523</v>
       </c>
       <c r="K9">
-        <v>1.045461939495518</v>
+        <v>1.053762777592207</v>
       </c>
       <c r="L9">
-        <v>1.041438807317059</v>
+        <v>1.054979693975409</v>
       </c>
       <c r="M9">
-        <v>1.051356517994944</v>
+        <v>1.064926051517513</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007683844769608</v>
+        <v>1.043007919792841</v>
       </c>
       <c r="D10">
-        <v>1.028314524513621</v>
+        <v>1.049686751307041</v>
       </c>
       <c r="E10">
-        <v>1.023770384880818</v>
+        <v>1.050780007453413</v>
       </c>
       <c r="F10">
-        <v>1.03359493831085</v>
+        <v>1.060706345338236</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0491769525538</v>
+        <v>1.04423844411677</v>
       </c>
       <c r="J10">
-        <v>1.035595884227368</v>
+        <v>1.049291876821326</v>
       </c>
       <c r="K10">
-        <v>1.042190702074935</v>
+        <v>1.053084151040741</v>
       </c>
       <c r="L10">
-        <v>1.03772332322447</v>
+        <v>1.054173616833449</v>
       </c>
       <c r="M10">
-        <v>1.047383009295371</v>
+        <v>1.064065932882405</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.004895988791617</v>
+        <v>1.042462976828691</v>
       </c>
       <c r="D11">
-        <v>1.026296672262496</v>
+        <v>1.04927176775148</v>
       </c>
       <c r="E11">
-        <v>1.02155141223997</v>
+        <v>1.050310250015834</v>
       </c>
       <c r="F11">
-        <v>1.031268047243796</v>
+        <v>1.060214436864409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048367522318006</v>
+        <v>1.044110126356056</v>
       </c>
       <c r="J11">
-        <v>1.034066497857598</v>
+        <v>1.048978149267948</v>
       </c>
       <c r="K11">
-        <v>1.040739145592942</v>
+        <v>1.052790358035928</v>
       </c>
       <c r="L11">
-        <v>1.036078031916954</v>
+        <v>1.053825101364986</v>
       </c>
       <c r="M11">
-        <v>1.045623439936339</v>
+        <v>1.063694035108966</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.00385042716223</v>
+        <v>1.042260719187369</v>
       </c>
       <c r="D12">
-        <v>1.025540797891217</v>
+        <v>1.049117764540866</v>
       </c>
       <c r="E12">
-        <v>1.020720492171676</v>
+        <v>1.050135967836318</v>
       </c>
       <c r="F12">
-        <v>1.030396633703534</v>
+        <v>1.060031928385335</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048062744199852</v>
+        <v>1.044062329703447</v>
       </c>
       <c r="J12">
-        <v>1.033492719247493</v>
+        <v>1.048861646084572</v>
       </c>
       <c r="K12">
-        <v>1.040194506901859</v>
+        <v>1.05268124020926</v>
       </c>
       <c r="L12">
-        <v>1.03546120308463</v>
+        <v>1.053695727126297</v>
       </c>
       <c r="M12">
-        <v>1.044963767229792</v>
+        <v>1.063555978475601</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.004075164816883</v>
+        <v>1.042304096937394</v>
       </c>
       <c r="D13">
-        <v>1.025703227133729</v>
+        <v>1.049150792377916</v>
       </c>
       <c r="E13">
-        <v>1.020899034875631</v>
+        <v>1.050173342570563</v>
       </c>
       <c r="F13">
-        <v>1.030583881092091</v>
+        <v>1.060071067615682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048128308545139</v>
+        <v>1.044072588286116</v>
       </c>
       <c r="J13">
-        <v>1.033616058009612</v>
+        <v>1.048886635068348</v>
       </c>
       <c r="K13">
-        <v>1.040311584331181</v>
+        <v>1.0527046458788</v>
       </c>
       <c r="L13">
-        <v>1.035593776247301</v>
+        <v>1.053723474697077</v>
       </c>
       <c r="M13">
-        <v>1.045105548673223</v>
+        <v>1.0635855883192</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.004809769542992</v>
+        <v>1.042446254905719</v>
       </c>
       <c r="D14">
-        <v>1.026234322539108</v>
+        <v>1.049259034927353</v>
       </c>
       <c r="E14">
-        <v>1.021482866340497</v>
+        <v>1.050295839568838</v>
       </c>
       <c r="F14">
-        <v>1.031196162547507</v>
+        <v>1.060199346396119</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048342414013921</v>
+        <v>1.044106178193134</v>
       </c>
       <c r="J14">
-        <v>1.034019186608769</v>
+        <v>1.048968518474452</v>
       </c>
       <c r="K14">
-        <v>1.040694238252863</v>
+        <v>1.05278133811045</v>
       </c>
       <c r="L14">
-        <v>1.036027162108351</v>
+        <v>1.053814405610318</v>
       </c>
       <c r="M14">
-        <v>1.045569036790998</v>
+        <v>1.063682621606285</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005261041368353</v>
+        <v>1.04253386417412</v>
       </c>
       <c r="D15">
-        <v>1.026560698396824</v>
+        <v>1.049325745366405</v>
       </c>
       <c r="E15">
-        <v>1.021841688580455</v>
+        <v>1.050371341457922</v>
       </c>
       <c r="F15">
-        <v>1.031572459278991</v>
+        <v>1.060278410844399</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04847378189777</v>
+        <v>1.04412685634773</v>
       </c>
       <c r="J15">
-        <v>1.034266806085596</v>
+        <v>1.049018973455844</v>
       </c>
       <c r="K15">
-        <v>1.040929273682914</v>
+        <v>1.052828592090794</v>
       </c>
       <c r="L15">
-        <v>1.036293424215214</v>
+        <v>1.053870441785946</v>
       </c>
       <c r="M15">
-        <v>1.045853793043327</v>
+        <v>1.063742418035253</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007867484103481</v>
+        <v>1.043044107975871</v>
       </c>
       <c r="D16">
-        <v>1.028447565394655</v>
+        <v>1.049714311945132</v>
       </c>
       <c r="E16">
-        <v>1.023916727344156</v>
+        <v>1.050811212572181</v>
       </c>
       <c r="F16">
-        <v>1.033748386608657</v>
+        <v>1.060739020764968</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049230100712209</v>
+        <v>1.044246941347435</v>
       </c>
       <c r="J16">
-        <v>1.035696597603784</v>
+        <v>1.049312701901086</v>
       </c>
       <c r="K16">
-        <v>1.042286281465411</v>
+        <v>1.053103650434528</v>
       </c>
       <c r="L16">
-        <v>1.037831729365749</v>
+        <v>1.054196757777076</v>
       </c>
       <c r="M16">
-        <v>1.047498944875105</v>
+        <v>1.064090626023109</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009485049451683</v>
+        <v>1.04336445070323</v>
       </c>
       <c r="D17">
-        <v>1.029620091995047</v>
+        <v>1.049958297120638</v>
       </c>
       <c r="E17">
-        <v>1.025206714318222</v>
+        <v>1.051087498101284</v>
       </c>
       <c r="F17">
-        <v>1.035100947790319</v>
+        <v>1.06102831791676</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049697308029045</v>
+        <v>1.044322028340298</v>
       </c>
       <c r="J17">
-        <v>1.03658354837204</v>
+        <v>1.049497000469779</v>
       </c>
       <c r="K17">
-        <v>1.043127968331243</v>
+        <v>1.053276203487493</v>
       </c>
       <c r="L17">
-        <v>1.038786756401465</v>
+        <v>1.054401587869434</v>
       </c>
       <c r="M17">
-        <v>1.048520302171159</v>
+        <v>1.064309193300606</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010422422392931</v>
+        <v>1.043551401583834</v>
       </c>
       <c r="D18">
-        <v>1.030300101048731</v>
+        <v>1.050100698146964</v>
       </c>
       <c r="E18">
-        <v>1.025955038270471</v>
+        <v>1.051248782004224</v>
       </c>
       <c r="F18">
-        <v>1.035885518867056</v>
+        <v>1.061197192228252</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049967261105984</v>
+        <v>1.044365738868854</v>
       </c>
       <c r="J18">
-        <v>1.037097384344247</v>
+        <v>1.049604516432074</v>
       </c>
       <c r="K18">
-        <v>1.04361553810297</v>
+        <v>1.053376856144381</v>
       </c>
       <c r="L18">
-        <v>1.039340304643486</v>
+        <v>1.054521111982223</v>
       </c>
       <c r="M18">
-        <v>1.049112294408644</v>
+        <v>1.064436731811018</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010741016340622</v>
+        <v>1.043615163971864</v>
       </c>
       <c r="D19">
-        <v>1.030531311305789</v>
+        <v>1.050149268184732</v>
       </c>
       <c r="E19">
-        <v>1.026209509471292</v>
+        <v>1.051303797842028</v>
       </c>
       <c r="F19">
-        <v>1.036152307203487</v>
+        <v>1.061254796357368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050058877234357</v>
+        <v>1.044380628342895</v>
       </c>
       <c r="J19">
-        <v>1.037272000461015</v>
+        <v>1.049641179559233</v>
       </c>
       <c r="K19">
-        <v>1.043781220585553</v>
+        <v>1.053411176967862</v>
       </c>
       <c r="L19">
-        <v>1.039528462524214</v>
+        <v>1.05456187507917</v>
       </c>
       <c r="M19">
-        <v>1.049313519458783</v>
+        <v>1.064480227899994</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009312136705105</v>
+        <v>1.043330070562861</v>
       </c>
       <c r="D20">
-        <v>1.029494696724733</v>
+        <v>1.04993211064156</v>
       </c>
       <c r="E20">
-        <v>1.025068737323924</v>
+        <v>1.05105784169011</v>
       </c>
       <c r="F20">
-        <v>1.034956283278719</v>
+        <v>1.060997265382759</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049647446845283</v>
+        <v>1.04431398115215</v>
       </c>
       <c r="J20">
-        <v>1.036488751230872</v>
+        <v>1.049477225133701</v>
       </c>
       <c r="K20">
-        <v>1.043038013442757</v>
+        <v>1.053257689610974</v>
       </c>
       <c r="L20">
-        <v>1.038684654884708</v>
+        <v>1.05437960633649</v>
       </c>
       <c r="M20">
-        <v>1.048411109509024</v>
+        <v>1.064285737717849</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004593727244443</v>
+        <v>1.042404388538084</v>
       </c>
       <c r="D21">
-        <v>1.026078105622231</v>
+        <v>1.049227156309381</v>
       </c>
       <c r="E21">
-        <v>1.021311129616109</v>
+        <v>1.050259761534689</v>
       </c>
       <c r="F21">
-        <v>1.03101605938856</v>
+        <v>1.060161565726816</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048279480000345</v>
+        <v>1.044096290487725</v>
       </c>
       <c r="J21">
-        <v>1.033900634291708</v>
+        <v>1.048944405034597</v>
       </c>
       <c r="K21">
-        <v>1.040581708710549</v>
+        <v>1.052758753872714</v>
       </c>
       <c r="L21">
-        <v>1.035899699762523</v>
+        <v>1.053787626503534</v>
       </c>
       <c r="M21">
-        <v>1.045432721113935</v>
+        <v>1.063654045423233</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.001568821543274</v>
+        <v>1.041823293143252</v>
       </c>
       <c r="D22">
-        <v>1.023893064784645</v>
+        <v>1.04878473544088</v>
       </c>
       <c r="E22">
-        <v>1.018909691589397</v>
+        <v>1.049759173505505</v>
       </c>
       <c r="F22">
-        <v>1.028497436275043</v>
+        <v>1.059637334021669</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047395486088302</v>
+        <v>1.043958646442871</v>
       </c>
       <c r="J22">
-        <v>1.032240311410172</v>
+        <v>1.048609569541535</v>
       </c>
       <c r="K22">
-        <v>1.039005604090997</v>
+        <v>1.052445111608127</v>
       </c>
       <c r="L22">
-        <v>1.034115626368876</v>
+        <v>1.053415888499151</v>
       </c>
       <c r="M22">
-        <v>1.043524731233085</v>
+        <v>1.063257355080561</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.003178056980046</v>
+        <v>1.042131255182536</v>
       </c>
       <c r="D23">
-        <v>1.025054978773361</v>
+        <v>1.04901919349194</v>
       </c>
       <c r="E23">
-        <v>1.020186520373706</v>
+        <v>1.050024430565222</v>
       </c>
       <c r="F23">
-        <v>1.029836616583763</v>
+        <v>1.059915124138204</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04786641470994</v>
+        <v>1.044031687187259</v>
       </c>
       <c r="J23">
-        <v>1.033123688483569</v>
+        <v>1.048787055607519</v>
       </c>
       <c r="K23">
-        <v>1.039844202053757</v>
+        <v>1.052611373284596</v>
       </c>
       <c r="L23">
-        <v>1.035064606565864</v>
+        <v>1.053612909403804</v>
       </c>
       <c r="M23">
-        <v>1.044539624011573</v>
+        <v>1.063467602088848</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009390287430592</v>
+        <v>1.043345605158487</v>
       </c>
       <c r="D24">
-        <v>1.029551369502949</v>
+        <v>1.049943942910777</v>
       </c>
       <c r="E24">
-        <v>1.025131095850648</v>
+        <v>1.051071241740585</v>
       </c>
       <c r="F24">
-        <v>1.035021664382358</v>
+        <v>1.061011296278124</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049669984873899</v>
+        <v>1.044317617597289</v>
       </c>
       <c r="J24">
-        <v>1.036531596802395</v>
+        <v>1.049486160702279</v>
       </c>
       <c r="K24">
-        <v>1.043078670591369</v>
+        <v>1.05326605521842</v>
       </c>
       <c r="L24">
-        <v>1.038730800974881</v>
+        <v>1.054389538690194</v>
       </c>
       <c r="M24">
-        <v>1.048460460539809</v>
+        <v>1.064296336125886</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016360309822588</v>
+        <v>1.044758721779053</v>
       </c>
       <c r="D25">
-        <v>1.034616729540312</v>
+        <v>1.051020531590414</v>
       </c>
       <c r="E25">
-        <v>1.03070888442636</v>
+        <v>1.052291148088256</v>
       </c>
       <c r="F25">
-        <v>1.04086869418154</v>
+        <v>1.062288520174852</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051662832325242</v>
+        <v>1.044646030023766</v>
       </c>
       <c r="J25">
-        <v>1.040349355698726</v>
+        <v>1.050298123345534</v>
       </c>
       <c r="K25">
-        <v>1.046700422513945</v>
+        <v>1.054025982992344</v>
       </c>
       <c r="L25">
-        <v>1.042848480086058</v>
+        <v>1.055292736591284</v>
       </c>
       <c r="M25">
-        <v>1.052864053871454</v>
+        <v>1.065260066091853</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045888919939243</v>
+        <v>1.021741840829927</v>
       </c>
       <c r="D2">
-        <v>1.051881940192187</v>
+        <v>1.038542255507637</v>
       </c>
       <c r="E2">
-        <v>1.053268210991737</v>
+        <v>1.035037945167128</v>
       </c>
       <c r="F2">
-        <v>1.063311325738323</v>
+        <v>1.045405090919952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044905204617403</v>
+        <v>1.053175627420917</v>
       </c>
       <c r="J2">
-        <v>1.050946246141701</v>
+        <v>1.043291149533286</v>
       </c>
       <c r="K2">
-        <v>1.054632212339488</v>
+        <v>1.049489532037716</v>
       </c>
       <c r="L2">
-        <v>1.056014648806957</v>
+        <v>1.046029808661904</v>
       </c>
       <c r="M2">
-        <v>1.066030308212694</v>
+        <v>1.056266127604847</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046711308515427</v>
+        <v>1.025553081401793</v>
       </c>
       <c r="D3">
-        <v>1.052508943949808</v>
+        <v>1.041329928732902</v>
       </c>
       <c r="E3">
-        <v>1.053979968179239</v>
+        <v>1.038116082695818</v>
       </c>
       <c r="F3">
-        <v>1.064056309778269</v>
+        <v>1.048629708354755</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045091769524372</v>
+        <v>1.054231417394778</v>
       </c>
       <c r="J3">
-        <v>1.051417107097216</v>
+        <v>1.045370579606778</v>
       </c>
       <c r="K3">
-        <v>1.055072428311692</v>
+        <v>1.051459946621062</v>
       </c>
       <c r="L3">
-        <v>1.056539676370491</v>
+        <v>1.04828342724587</v>
       </c>
       <c r="M3">
-        <v>1.066590454118423</v>
+        <v>1.058675992730658</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047244254333979</v>
+        <v>1.027976796877103</v>
       </c>
       <c r="D4">
-        <v>1.052915360384767</v>
+        <v>1.043105963540192</v>
       </c>
       <c r="E4">
-        <v>1.05444158529646</v>
+        <v>1.040079037496991</v>
       </c>
       <c r="F4">
-        <v>1.06453943265089</v>
+        <v>1.050685637168853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045211735609935</v>
+        <v>1.054895425914856</v>
       </c>
       <c r="J4">
-        <v>1.051721900334248</v>
+        <v>1.046690952389409</v>
       </c>
       <c r="K4">
-        <v>1.055357287291028</v>
+        <v>1.052710550609599</v>
       </c>
       <c r="L4">
-        <v>1.056879790596831</v>
+        <v>1.049716660257172</v>
       </c>
       <c r="M4">
-        <v>1.066953303789797</v>
+        <v>1.060208523097302</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047468495697132</v>
+        <v>1.028985871502992</v>
       </c>
       <c r="D5">
-        <v>1.053086384250074</v>
+        <v>1.043846127336697</v>
       </c>
       <c r="E5">
-        <v>1.054635901507857</v>
+        <v>1.040897556411831</v>
       </c>
       <c r="F5">
-        <v>1.064742791170015</v>
+        <v>1.05154281969571</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045261988085564</v>
+        <v>1.055170068621178</v>
       </c>
       <c r="J5">
-        <v>1.051850061463763</v>
+        <v>1.047240158105134</v>
       </c>
       <c r="K5">
-        <v>1.055477042945489</v>
+        <v>1.053230598515769</v>
       </c>
       <c r="L5">
-        <v>1.057022865531827</v>
+        <v>1.0503133517564</v>
       </c>
       <c r="M5">
-        <v>1.067105939343361</v>
+        <v>1.060846535951043</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047506157951058</v>
+        <v>1.029154730098498</v>
       </c>
       <c r="D6">
-        <v>1.053115109611215</v>
+        <v>1.043970028812432</v>
       </c>
       <c r="E6">
-        <v>1.054668542795457</v>
+        <v>1.041034601383971</v>
       </c>
       <c r="F6">
-        <v>1.064776950773774</v>
+        <v>1.051686331964262</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045270415044979</v>
+        <v>1.05521592034446</v>
       </c>
       <c r="J6">
-        <v>1.051871581768096</v>
+        <v>1.047332031488827</v>
       </c>
       <c r="K6">
-        <v>1.055497150460956</v>
+        <v>1.053317585987831</v>
       </c>
       <c r="L6">
-        <v>1.057046893728763</v>
+        <v>1.050413200628108</v>
       </c>
       <c r="M6">
-        <v>1.06713157296132</v>
+        <v>1.060953298289622</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04724724991013</v>
+        <v>1.027990318519339</v>
       </c>
       <c r="D7">
-        <v>1.052917644962622</v>
+        <v>1.043115878892472</v>
       </c>
       <c r="E7">
-        <v>1.054444180770066</v>
+        <v>1.040090000695798</v>
       </c>
       <c r="F7">
-        <v>1.064542148943306</v>
+        <v>1.050697118640162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045212407799208</v>
+        <v>1.054899113307268</v>
       </c>
       <c r="J7">
-        <v>1.051723612728933</v>
+        <v>1.046698313816491</v>
       </c>
       <c r="K7">
-        <v>1.055358887470021</v>
+        <v>1.052717521763993</v>
       </c>
       <c r="L7">
-        <v>1.056881702015849</v>
+        <v>1.049724656032032</v>
       </c>
       <c r="M7">
-        <v>1.066955342948058</v>
+        <v>1.060217072661753</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046166682111975</v>
+        <v>1.023038832488908</v>
       </c>
       <c r="D8">
-        <v>1.052093692315917</v>
+        <v>1.039490217430816</v>
       </c>
       <c r="E8">
-        <v>1.053508531429313</v>
+        <v>1.036084296667482</v>
       </c>
       <c r="F8">
-        <v>1.063562874098921</v>
+        <v>1.046501326693873</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04496841072533</v>
+        <v>1.053536452665167</v>
       </c>
       <c r="J8">
-        <v>1.05110535120631</v>
+        <v>1.043999200084655</v>
       </c>
       <c r="K8">
-        <v>1.054780982510441</v>
+        <v>1.05016057333614</v>
       </c>
       <c r="L8">
-        <v>1.056192003407663</v>
+        <v>1.046796698541884</v>
       </c>
       <c r="M8">
-        <v>1.06621952876059</v>
+        <v>1.057086200771421</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.044268835320233</v>
+        <v>1.013974851034475</v>
       </c>
       <c r="D9">
-        <v>1.05064725219643</v>
+        <v>1.032880718637355</v>
       </c>
       <c r="E9">
-        <v>1.051868025452025</v>
+        <v>1.028796270410844</v>
       </c>
       <c r="F9">
-        <v>1.061845542554791</v>
+        <v>1.038864013262701</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044532717664341</v>
+        <v>1.050984777818156</v>
       </c>
       <c r="J9">
-        <v>1.050016836369523</v>
+        <v>1.03904359242624</v>
       </c>
       <c r="K9">
-        <v>1.053762777592207</v>
+        <v>1.045461939495519</v>
       </c>
       <c r="L9">
-        <v>1.054979693975409</v>
+        <v>1.04143880731706</v>
       </c>
       <c r="M9">
-        <v>1.064926051517513</v>
+        <v>1.051356517994945</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.043007919792841</v>
+        <v>1.007683844769608</v>
       </c>
       <c r="D10">
-        <v>1.049686751307041</v>
+        <v>1.028314524513621</v>
       </c>
       <c r="E10">
-        <v>1.050780007453413</v>
+        <v>1.023770384880818</v>
       </c>
       <c r="F10">
-        <v>1.060706345338236</v>
+        <v>1.03359493831085</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04423844411677</v>
+        <v>1.0491769525538</v>
       </c>
       <c r="J10">
-        <v>1.049291876821326</v>
+        <v>1.035595884227368</v>
       </c>
       <c r="K10">
-        <v>1.053084151040741</v>
+        <v>1.042190702074935</v>
       </c>
       <c r="L10">
-        <v>1.054173616833449</v>
+        <v>1.03772332322447</v>
       </c>
       <c r="M10">
-        <v>1.064065932882405</v>
+        <v>1.047383009295371</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.042462976828691</v>
+        <v>1.004895988791618</v>
       </c>
       <c r="D11">
-        <v>1.04927176775148</v>
+        <v>1.026296672262497</v>
       </c>
       <c r="E11">
-        <v>1.050310250015834</v>
+        <v>1.021551412239972</v>
       </c>
       <c r="F11">
-        <v>1.060214436864409</v>
+        <v>1.031268047243797</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044110126356056</v>
+        <v>1.048367522318007</v>
       </c>
       <c r="J11">
-        <v>1.048978149267948</v>
+        <v>1.034066497857599</v>
       </c>
       <c r="K11">
-        <v>1.052790358035928</v>
+        <v>1.040739145592943</v>
       </c>
       <c r="L11">
-        <v>1.053825101364986</v>
+        <v>1.036078031916955</v>
       </c>
       <c r="M11">
-        <v>1.063694035108966</v>
+        <v>1.04562343993634</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.042260719187369</v>
+        <v>1.003850427162231</v>
       </c>
       <c r="D12">
-        <v>1.049117764540866</v>
+        <v>1.025540797891217</v>
       </c>
       <c r="E12">
-        <v>1.050135967836318</v>
+        <v>1.020720492171677</v>
       </c>
       <c r="F12">
-        <v>1.060031928385335</v>
+        <v>1.030396633703534</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044062329703447</v>
+        <v>1.048062744199852</v>
       </c>
       <c r="J12">
-        <v>1.048861646084572</v>
+        <v>1.033492719247494</v>
       </c>
       <c r="K12">
-        <v>1.05268124020926</v>
+        <v>1.040194506901859</v>
       </c>
       <c r="L12">
-        <v>1.053695727126297</v>
+        <v>1.03546120308463</v>
       </c>
       <c r="M12">
-        <v>1.063555978475601</v>
+        <v>1.044963767229792</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.042304096937394</v>
+        <v>1.004075164816883</v>
       </c>
       <c r="D13">
-        <v>1.049150792377916</v>
+        <v>1.025703227133729</v>
       </c>
       <c r="E13">
-        <v>1.050173342570563</v>
+        <v>1.020899034875631</v>
       </c>
       <c r="F13">
-        <v>1.060071067615682</v>
+        <v>1.030583881092091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044072588286116</v>
+        <v>1.048128308545139</v>
       </c>
       <c r="J13">
-        <v>1.048886635068348</v>
+        <v>1.033616058009613</v>
       </c>
       <c r="K13">
-        <v>1.0527046458788</v>
+        <v>1.040311584331181</v>
       </c>
       <c r="L13">
-        <v>1.053723474697077</v>
+        <v>1.035593776247301</v>
       </c>
       <c r="M13">
-        <v>1.0635855883192</v>
+        <v>1.045105548673223</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.042446254905719</v>
+        <v>1.004809769542992</v>
       </c>
       <c r="D14">
-        <v>1.049259034927353</v>
+        <v>1.026234322539108</v>
       </c>
       <c r="E14">
-        <v>1.050295839568838</v>
+        <v>1.021482866340497</v>
       </c>
       <c r="F14">
-        <v>1.060199346396119</v>
+        <v>1.031196162547507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044106178193134</v>
+        <v>1.04834241401392</v>
       </c>
       <c r="J14">
-        <v>1.048968518474452</v>
+        <v>1.034019186608769</v>
       </c>
       <c r="K14">
-        <v>1.05278133811045</v>
+        <v>1.040694238252862</v>
       </c>
       <c r="L14">
-        <v>1.053814405610318</v>
+        <v>1.03602716210835</v>
       </c>
       <c r="M14">
-        <v>1.063682621606285</v>
+        <v>1.045569036790998</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04253386417412</v>
+        <v>1.005261041368353</v>
       </c>
       <c r="D15">
-        <v>1.049325745366405</v>
+        <v>1.026560698396824</v>
       </c>
       <c r="E15">
-        <v>1.050371341457922</v>
+        <v>1.021841688580455</v>
       </c>
       <c r="F15">
-        <v>1.060278410844399</v>
+        <v>1.031572459278992</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04412685634773</v>
+        <v>1.04847378189777</v>
       </c>
       <c r="J15">
-        <v>1.049018973455844</v>
+        <v>1.034266806085596</v>
       </c>
       <c r="K15">
-        <v>1.052828592090794</v>
+        <v>1.040929273682913</v>
       </c>
       <c r="L15">
-        <v>1.053870441785946</v>
+        <v>1.036293424215214</v>
       </c>
       <c r="M15">
-        <v>1.063742418035253</v>
+        <v>1.045853793043327</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.043044107975871</v>
+        <v>1.007867484103481</v>
       </c>
       <c r="D16">
-        <v>1.049714311945132</v>
+        <v>1.028447565394654</v>
       </c>
       <c r="E16">
-        <v>1.050811212572181</v>
+        <v>1.023916727344156</v>
       </c>
       <c r="F16">
-        <v>1.060739020764968</v>
+        <v>1.033748386608657</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044246941347435</v>
+        <v>1.049230100712209</v>
       </c>
       <c r="J16">
-        <v>1.049312701901086</v>
+        <v>1.035696597603783</v>
       </c>
       <c r="K16">
-        <v>1.053103650434528</v>
+        <v>1.04228628146541</v>
       </c>
       <c r="L16">
-        <v>1.054196757777076</v>
+        <v>1.037831729365748</v>
       </c>
       <c r="M16">
-        <v>1.064090626023109</v>
+        <v>1.047498944875105</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04336445070323</v>
+        <v>1.009485049451684</v>
       </c>
       <c r="D17">
-        <v>1.049958297120638</v>
+        <v>1.029620091995048</v>
       </c>
       <c r="E17">
-        <v>1.051087498101284</v>
+        <v>1.025206714318222</v>
       </c>
       <c r="F17">
-        <v>1.06102831791676</v>
+        <v>1.035100947790319</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044322028340298</v>
+        <v>1.049697308029045</v>
       </c>
       <c r="J17">
-        <v>1.049497000469779</v>
+        <v>1.036583548372041</v>
       </c>
       <c r="K17">
-        <v>1.053276203487493</v>
+        <v>1.043127968331244</v>
       </c>
       <c r="L17">
-        <v>1.054401587869434</v>
+        <v>1.038786756401465</v>
       </c>
       <c r="M17">
-        <v>1.064309193300606</v>
+        <v>1.048520302171159</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043551401583834</v>
+        <v>1.010422422392932</v>
       </c>
       <c r="D18">
-        <v>1.050100698146964</v>
+        <v>1.030300101048732</v>
       </c>
       <c r="E18">
-        <v>1.051248782004224</v>
+        <v>1.025955038270472</v>
       </c>
       <c r="F18">
-        <v>1.061197192228252</v>
+        <v>1.035885518867057</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044365738868854</v>
+        <v>1.049967261105984</v>
       </c>
       <c r="J18">
-        <v>1.049604516432074</v>
+        <v>1.037097384344248</v>
       </c>
       <c r="K18">
-        <v>1.053376856144381</v>
+        <v>1.043615538102971</v>
       </c>
       <c r="L18">
-        <v>1.054521111982223</v>
+        <v>1.039340304643487</v>
       </c>
       <c r="M18">
-        <v>1.064436731811018</v>
+        <v>1.049112294408644</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043615163971864</v>
+        <v>1.010741016340622</v>
       </c>
       <c r="D19">
-        <v>1.050149268184732</v>
+        <v>1.030531311305789</v>
       </c>
       <c r="E19">
-        <v>1.051303797842028</v>
+        <v>1.026209509471292</v>
       </c>
       <c r="F19">
-        <v>1.061254796357368</v>
+        <v>1.036152307203487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044380628342895</v>
+        <v>1.050058877234357</v>
       </c>
       <c r="J19">
-        <v>1.049641179559233</v>
+        <v>1.037272000461015</v>
       </c>
       <c r="K19">
-        <v>1.053411176967862</v>
+        <v>1.043781220585553</v>
       </c>
       <c r="L19">
-        <v>1.05456187507917</v>
+        <v>1.039528462524214</v>
       </c>
       <c r="M19">
-        <v>1.064480227899994</v>
+        <v>1.049313519458783</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.043330070562861</v>
+        <v>1.009312136705106</v>
       </c>
       <c r="D20">
-        <v>1.04993211064156</v>
+        <v>1.029494696724734</v>
       </c>
       <c r="E20">
-        <v>1.05105784169011</v>
+        <v>1.025068737323925</v>
       </c>
       <c r="F20">
-        <v>1.060997265382759</v>
+        <v>1.03495628327872</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04431398115215</v>
+        <v>1.049647446845284</v>
       </c>
       <c r="J20">
-        <v>1.049477225133701</v>
+        <v>1.036488751230873</v>
       </c>
       <c r="K20">
-        <v>1.053257689610974</v>
+        <v>1.043038013442758</v>
       </c>
       <c r="L20">
-        <v>1.05437960633649</v>
+        <v>1.038684654884709</v>
       </c>
       <c r="M20">
-        <v>1.064285737717849</v>
+        <v>1.048411109509025</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.042404388538084</v>
+        <v>1.004593727244442</v>
       </c>
       <c r="D21">
-        <v>1.049227156309381</v>
+        <v>1.026078105622231</v>
       </c>
       <c r="E21">
-        <v>1.050259761534689</v>
+        <v>1.021311129616108</v>
       </c>
       <c r="F21">
-        <v>1.060161565726816</v>
+        <v>1.03101605938856</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044096290487725</v>
+        <v>1.048279480000344</v>
       </c>
       <c r="J21">
-        <v>1.048944405034597</v>
+        <v>1.033900634291708</v>
       </c>
       <c r="K21">
-        <v>1.052758753872714</v>
+        <v>1.040581708710549</v>
       </c>
       <c r="L21">
-        <v>1.053787626503534</v>
+        <v>1.035899699762523</v>
       </c>
       <c r="M21">
-        <v>1.063654045423233</v>
+        <v>1.045432721113935</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041823293143252</v>
+        <v>1.001568821543274</v>
       </c>
       <c r="D22">
-        <v>1.04878473544088</v>
+        <v>1.023893064784645</v>
       </c>
       <c r="E22">
-        <v>1.049759173505505</v>
+        <v>1.018909691589397</v>
       </c>
       <c r="F22">
-        <v>1.059637334021669</v>
+        <v>1.028497436275043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043958646442871</v>
+        <v>1.047395486088302</v>
       </c>
       <c r="J22">
-        <v>1.048609569541535</v>
+        <v>1.032240311410172</v>
       </c>
       <c r="K22">
-        <v>1.052445111608127</v>
+        <v>1.039005604090997</v>
       </c>
       <c r="L22">
-        <v>1.053415888499151</v>
+        <v>1.034115626368876</v>
       </c>
       <c r="M22">
-        <v>1.063257355080561</v>
+        <v>1.043524731233085</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.042131255182536</v>
+        <v>1.003178056980047</v>
       </c>
       <c r="D23">
-        <v>1.04901919349194</v>
+        <v>1.025054978773362</v>
       </c>
       <c r="E23">
-        <v>1.050024430565222</v>
+        <v>1.020186520373706</v>
       </c>
       <c r="F23">
-        <v>1.059915124138204</v>
+        <v>1.029836616583763</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044031687187259</v>
+        <v>1.047866414709941</v>
       </c>
       <c r="J23">
-        <v>1.048787055607519</v>
+        <v>1.033123688483569</v>
       </c>
       <c r="K23">
-        <v>1.052611373284596</v>
+        <v>1.039844202053758</v>
       </c>
       <c r="L23">
-        <v>1.053612909403804</v>
+        <v>1.035064606565864</v>
       </c>
       <c r="M23">
-        <v>1.063467602088848</v>
+        <v>1.044539624011574</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.043345605158487</v>
+        <v>1.009390287430592</v>
       </c>
       <c r="D24">
-        <v>1.049943942910777</v>
+        <v>1.029551369502949</v>
       </c>
       <c r="E24">
-        <v>1.051071241740585</v>
+        <v>1.025131095850649</v>
       </c>
       <c r="F24">
-        <v>1.061011296278124</v>
+        <v>1.035021664382358</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044317617597289</v>
+        <v>1.049669984873899</v>
       </c>
       <c r="J24">
-        <v>1.049486160702279</v>
+        <v>1.036531596802396</v>
       </c>
       <c r="K24">
-        <v>1.05326605521842</v>
+        <v>1.04307867059137</v>
       </c>
       <c r="L24">
-        <v>1.054389538690194</v>
+        <v>1.038730800974882</v>
       </c>
       <c r="M24">
-        <v>1.064296336125886</v>
+        <v>1.04846046053981</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044758721779053</v>
+        <v>1.016360309822588</v>
       </c>
       <c r="D25">
-        <v>1.051020531590414</v>
+        <v>1.034616729540312</v>
       </c>
       <c r="E25">
-        <v>1.052291148088256</v>
+        <v>1.030708884426359</v>
       </c>
       <c r="F25">
-        <v>1.062288520174852</v>
+        <v>1.040868694181539</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044646030023766</v>
+        <v>1.051662832325241</v>
       </c>
       <c r="J25">
-        <v>1.050298123345534</v>
+        <v>1.040349355698725</v>
       </c>
       <c r="K25">
-        <v>1.054025982992344</v>
+        <v>1.046700422513944</v>
       </c>
       <c r="L25">
-        <v>1.055292736591284</v>
+        <v>1.042848480086057</v>
       </c>
       <c r="M25">
-        <v>1.065260066091853</v>
+        <v>1.052864053871452</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021741840829927</v>
+        <v>1.048680914502046</v>
       </c>
       <c r="D2">
-        <v>1.038542255507637</v>
+        <v>1.060465210219927</v>
       </c>
       <c r="E2">
-        <v>1.035037945167128</v>
+        <v>1.056685687889239</v>
       </c>
       <c r="F2">
-        <v>1.045405090919952</v>
+        <v>1.064601963877501</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053175627420917</v>
+        <v>1.072986674555051</v>
       </c>
       <c r="J2">
-        <v>1.043291149533286</v>
+        <v>1.0694970641182</v>
       </c>
       <c r="K2">
-        <v>1.049489532037716</v>
+        <v>1.071141855701342</v>
       </c>
       <c r="L2">
-        <v>1.046029808661904</v>
+        <v>1.067407994866122</v>
       </c>
       <c r="M2">
-        <v>1.056266127604847</v>
+        <v>1.075229092811855</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.068110660655609</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.061373196875256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025553081401793</v>
+        <v>1.053159196735994</v>
       </c>
       <c r="D3">
-        <v>1.041329928732902</v>
+        <v>1.063612145219397</v>
       </c>
       <c r="E3">
-        <v>1.038116082695818</v>
+        <v>1.060263458832078</v>
       </c>
       <c r="F3">
-        <v>1.048629708354755</v>
+        <v>1.067859489973878</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054231417394778</v>
+        <v>1.074541994683033</v>
       </c>
       <c r="J3">
-        <v>1.045370579606778</v>
+        <v>1.072298602857183</v>
       </c>
       <c r="K3">
-        <v>1.051459946621062</v>
+        <v>1.073490995719344</v>
       </c>
       <c r="L3">
-        <v>1.04828342724587</v>
+        <v>1.070179227148596</v>
       </c>
       <c r="M3">
-        <v>1.058675992730658</v>
+        <v>1.077691924119687</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.070059753059539</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.063031562611077</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027976796877103</v>
+        <v>1.056002245051416</v>
       </c>
       <c r="D4">
-        <v>1.043105963540192</v>
+        <v>1.065613459674793</v>
       </c>
       <c r="E4">
-        <v>1.040079037496991</v>
+        <v>1.062539416767815</v>
       </c>
       <c r="F4">
-        <v>1.050685637168853</v>
+        <v>1.069933303952453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054895425914856</v>
+        <v>1.075520460033138</v>
       </c>
       <c r="J4">
-        <v>1.046690952389409</v>
+        <v>1.074074336936753</v>
       </c>
       <c r="K4">
-        <v>1.052710550609599</v>
+        <v>1.074979587481642</v>
       </c>
       <c r="L4">
-        <v>1.049716660257172</v>
+        <v>1.071937385573255</v>
       </c>
       <c r="M4">
-        <v>1.060208523097302</v>
+        <v>1.079255063613868</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.071296824085196</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.064084930438177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028985871502992</v>
+        <v>1.057191578275498</v>
       </c>
       <c r="D5">
-        <v>1.043846127336697</v>
+        <v>1.06645386623083</v>
       </c>
       <c r="E5">
-        <v>1.040897556411831</v>
+        <v>1.063494272820452</v>
       </c>
       <c r="F5">
-        <v>1.05154281969571</v>
+        <v>1.070803204055735</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055170068621178</v>
+        <v>1.075929753705122</v>
       </c>
       <c r="J5">
-        <v>1.047240158105134</v>
+        <v>1.074818868377506</v>
       </c>
       <c r="K5">
-        <v>1.053230598515769</v>
+        <v>1.075605169893842</v>
       </c>
       <c r="L5">
-        <v>1.0503133517564</v>
+        <v>1.072675413955265</v>
       </c>
       <c r="M5">
-        <v>1.060846535951043</v>
+        <v>1.079911023100314</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.071815950875584</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.064534184815975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029154730098498</v>
+        <v>1.057398793289291</v>
       </c>
       <c r="D6">
-        <v>1.043970028812432</v>
+        <v>1.066603242755972</v>
       </c>
       <c r="E6">
-        <v>1.041034601383971</v>
+        <v>1.063662743986469</v>
       </c>
       <c r="F6">
-        <v>1.051686331964262</v>
+        <v>1.070956072630741</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05521592034446</v>
+        <v>1.076003554240577</v>
       </c>
       <c r="J6">
-        <v>1.047332031488827</v>
+        <v>1.074951455943117</v>
       </c>
       <c r="K6">
-        <v>1.053317585987831</v>
+        <v>1.07571843500169</v>
       </c>
       <c r="L6">
-        <v>1.050413200628108</v>
+        <v>1.072807444818936</v>
       </c>
       <c r="M6">
-        <v>1.060953298289622</v>
+        <v>1.080027944547203</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.071908482554247</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.064622732474383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027990318519339</v>
+        <v>1.056040555525961</v>
       </c>
       <c r="D7">
-        <v>1.043115878892472</v>
+        <v>1.065648356617821</v>
       </c>
       <c r="E7">
-        <v>1.040090000695798</v>
+        <v>1.062575761467243</v>
       </c>
       <c r="F7">
-        <v>1.050697118640162</v>
+        <v>1.069964647670999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054899113307268</v>
+        <v>1.075540721183964</v>
       </c>
       <c r="J7">
-        <v>1.046698313816491</v>
+        <v>1.074106194059803</v>
       </c>
       <c r="K7">
-        <v>1.052717521763993</v>
+        <v>1.075011366968057</v>
       </c>
       <c r="L7">
-        <v>1.049724656032032</v>
+        <v>1.071970584702685</v>
       </c>
       <c r="M7">
-        <v>1.060217072661753</v>
+        <v>1.079283344359717</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.071319205493886</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.064126873938077</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023038832488908</v>
+        <v>1.050234703889744</v>
       </c>
       <c r="D8">
-        <v>1.039490217430816</v>
+        <v>1.061566250746563</v>
       </c>
       <c r="E8">
-        <v>1.036084296667482</v>
+        <v>1.057933513839276</v>
       </c>
       <c r="F8">
-        <v>1.046501326693873</v>
+        <v>1.065735320873604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053536452665167</v>
+        <v>1.073537020527958</v>
       </c>
       <c r="J8">
-        <v>1.043999200084655</v>
+        <v>1.070479692807239</v>
       </c>
       <c r="K8">
-        <v>1.05016057333614</v>
+        <v>1.071972174584241</v>
       </c>
       <c r="L8">
-        <v>1.046796698541884</v>
+        <v>1.068382012177156</v>
       </c>
       <c r="M8">
-        <v>1.057086200771421</v>
+        <v>1.076092826532002</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.068794222766447</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.061982481374202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013974851034475</v>
+        <v>1.039527192031288</v>
       </c>
       <c r="D9">
-        <v>1.032880718637355</v>
+        <v>1.054054552010771</v>
       </c>
       <c r="E9">
-        <v>1.028796270410844</v>
+        <v>1.04940079782746</v>
       </c>
       <c r="F9">
-        <v>1.038864013262701</v>
+        <v>1.057977623113123</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050984777818156</v>
+        <v>1.069760730438799</v>
       </c>
       <c r="J9">
-        <v>1.03904359242624</v>
+        <v>1.06375740608601</v>
       </c>
       <c r="K9">
-        <v>1.045461939495519</v>
+        <v>1.066327545157862</v>
       </c>
       <c r="L9">
-        <v>1.04143880731706</v>
+        <v>1.061740185245992</v>
       </c>
       <c r="M9">
-        <v>1.051356517994945</v>
+        <v>1.070195219737496</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.064126822866088</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.057988483997483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007683844769608</v>
+        <v>1.03218604827434</v>
       </c>
       <c r="D10">
-        <v>1.028314524513621</v>
+        <v>1.048955617363492</v>
       </c>
       <c r="E10">
-        <v>1.023770384880818</v>
+        <v>1.043623638648712</v>
       </c>
       <c r="F10">
-        <v>1.03359493831085</v>
+        <v>1.052752385462655</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0491769525538</v>
+        <v>1.067160599252113</v>
       </c>
       <c r="J10">
-        <v>1.035595884227368</v>
+        <v>1.059178401013266</v>
       </c>
       <c r="K10">
-        <v>1.042190702074935</v>
+        <v>1.06249385244357</v>
       </c>
       <c r="L10">
-        <v>1.03772332322447</v>
+        <v>1.057247526630556</v>
       </c>
       <c r="M10">
-        <v>1.047383009295371</v>
+        <v>1.066230306479172</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.061039019951276</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.055294314447683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.004895988791618</v>
+        <v>1.029893205509096</v>
       </c>
       <c r="D11">
-        <v>1.026296672262497</v>
+        <v>1.047587892917697</v>
       </c>
       <c r="E11">
-        <v>1.021551412239972</v>
+        <v>1.042179210565309</v>
       </c>
       <c r="F11">
-        <v>1.031268047243797</v>
+        <v>1.051595590743557</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048367522318007</v>
+        <v>1.066595642960516</v>
       </c>
       <c r="J11">
-        <v>1.034066497857599</v>
+        <v>1.058073181876934</v>
       </c>
       <c r="K11">
-        <v>1.040739145592943</v>
+        <v>1.061664907770488</v>
       </c>
       <c r="L11">
-        <v>1.036078031916955</v>
+        <v>1.05634723809126</v>
       </c>
       <c r="M11">
-        <v>1.04562343993634</v>
+        <v>1.065605944788176</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.060970094112264</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.054740233989603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003850427162231</v>
+        <v>1.029377723398503</v>
       </c>
       <c r="D12">
-        <v>1.025540797891217</v>
+        <v>1.047389207203301</v>
       </c>
       <c r="E12">
-        <v>1.020720492171677</v>
+        <v>1.042038458871988</v>
       </c>
       <c r="F12">
-        <v>1.030396633703534</v>
+        <v>1.051576661736762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048062744199852</v>
+        <v>1.066594335727698</v>
       </c>
       <c r="J12">
-        <v>1.033492719247494</v>
+        <v>1.057988782739286</v>
       </c>
       <c r="K12">
-        <v>1.040194506901859</v>
+        <v>1.061661536514801</v>
       </c>
       <c r="L12">
-        <v>1.03546120308463</v>
+        <v>1.056402277383265</v>
       </c>
       <c r="M12">
-        <v>1.044963767229792</v>
+        <v>1.065778229741202</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.061425268218359</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.05473785051693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.004075164816883</v>
+        <v>1.030228443767409</v>
       </c>
       <c r="D13">
-        <v>1.025703227133729</v>
+        <v>1.048109782068669</v>
       </c>
       <c r="E13">
-        <v>1.020899034875631</v>
+        <v>1.04292483029588</v>
       </c>
       <c r="F13">
-        <v>1.030583881092091</v>
+        <v>1.052466895963355</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048128308545139</v>
+        <v>1.067052232754982</v>
       </c>
       <c r="J13">
-        <v>1.033616058009613</v>
+        <v>1.058718225500848</v>
       </c>
       <c r="K13">
-        <v>1.040311584331181</v>
+        <v>1.06232874336579</v>
       </c>
       <c r="L13">
-        <v>1.035593776247301</v>
+        <v>1.057231976477636</v>
       </c>
       <c r="M13">
-        <v>1.045105548673223</v>
+        <v>1.066612617945093</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.06235602292817</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.055207137589639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004809769542992</v>
+        <v>1.031440810686406</v>
       </c>
       <c r="D14">
-        <v>1.026234322539108</v>
+        <v>1.049029556039955</v>
       </c>
       <c r="E14">
-        <v>1.021482866340497</v>
+        <v>1.044007544567972</v>
       </c>
       <c r="F14">
-        <v>1.031196162547507</v>
+        <v>1.053500204395995</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04834241401392</v>
+        <v>1.067579620024502</v>
       </c>
       <c r="J14">
-        <v>1.034019186608769</v>
+        <v>1.059595557379751</v>
       </c>
       <c r="K14">
-        <v>1.040694238252862</v>
+        <v>1.063098351972939</v>
       </c>
       <c r="L14">
-        <v>1.03602716210835</v>
+        <v>1.05816061545952</v>
       </c>
       <c r="M14">
-        <v>1.045569036790998</v>
+        <v>1.067494847669545</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.06322363825517</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.055752636466802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005261041368353</v>
+        <v>1.032045821448942</v>
       </c>
       <c r="D15">
-        <v>1.026560698396824</v>
+        <v>1.049467411266301</v>
       </c>
       <c r="E15">
-        <v>1.021841688580455</v>
+        <v>1.044510296554582</v>
       </c>
       <c r="F15">
-        <v>1.031572459278992</v>
+        <v>1.053967342637157</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04847378189777</v>
+        <v>1.067817279030087</v>
       </c>
       <c r="J15">
-        <v>1.034266806085596</v>
+        <v>1.060000254168469</v>
       </c>
       <c r="K15">
-        <v>1.040929273682913</v>
+        <v>1.063445993266461</v>
       </c>
       <c r="L15">
-        <v>1.036293424215214</v>
+        <v>1.058571405436913</v>
       </c>
       <c r="M15">
-        <v>1.045853793043327</v>
+        <v>1.067871873166375</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.063558566385761</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.056004131024236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007867484103481</v>
+        <v>1.034996335278441</v>
       </c>
       <c r="D16">
-        <v>1.028447565394654</v>
+        <v>1.051495208026566</v>
       </c>
       <c r="E16">
-        <v>1.023916727344156</v>
+        <v>1.04678982714865</v>
       </c>
       <c r="F16">
-        <v>1.033748386608657</v>
+        <v>1.056032005849487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049230100712209</v>
+        <v>1.068849920567447</v>
       </c>
       <c r="J16">
-        <v>1.035696597603783</v>
+        <v>1.061814533400403</v>
       </c>
       <c r="K16">
-        <v>1.04228628146541</v>
+        <v>1.064958904231997</v>
       </c>
       <c r="L16">
-        <v>1.037831729365748</v>
+        <v>1.060328366824094</v>
       </c>
       <c r="M16">
-        <v>1.047498944875105</v>
+        <v>1.069424347740868</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.064747606806935</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.057076834861739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009485049451684</v>
+        <v>1.036627695538662</v>
       </c>
       <c r="D17">
-        <v>1.029620091995048</v>
+        <v>1.052571901349982</v>
       </c>
       <c r="E17">
-        <v>1.025206714318222</v>
+        <v>1.047975234595334</v>
       </c>
       <c r="F17">
-        <v>1.035100947790319</v>
+        <v>1.057073706186534</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049697308029045</v>
+        <v>1.069364372302884</v>
       </c>
       <c r="J17">
-        <v>1.036583548372041</v>
+        <v>1.062747614679878</v>
       </c>
       <c r="K17">
-        <v>1.043127968331244</v>
+        <v>1.065716934438543</v>
       </c>
       <c r="L17">
-        <v>1.038786756401465</v>
+        <v>1.061191309448873</v>
       </c>
       <c r="M17">
-        <v>1.048520302171159</v>
+        <v>1.070149926989035</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.065194463791157</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.057615276705512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010422422392932</v>
+        <v>1.037241408730967</v>
       </c>
       <c r="D18">
-        <v>1.030300101048732</v>
+        <v>1.052889208990351</v>
       </c>
       <c r="E18">
-        <v>1.025955038270472</v>
+        <v>1.04828035211792</v>
       </c>
       <c r="F18">
-        <v>1.035885518867057</v>
+        <v>1.057277361941711</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049967261105984</v>
+        <v>1.069454591171259</v>
       </c>
       <c r="J18">
-        <v>1.037097384344248</v>
+        <v>1.062967727600808</v>
       </c>
       <c r="K18">
-        <v>1.043615538102971</v>
+        <v>1.065853450528138</v>
       </c>
       <c r="L18">
-        <v>1.039340304643487</v>
+        <v>1.061314680354188</v>
       </c>
       <c r="M18">
-        <v>1.049112294408644</v>
+        <v>1.070175595561857</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.064982009923425</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.05770048066517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010741016340622</v>
+        <v>1.036963835215304</v>
       </c>
       <c r="D19">
-        <v>1.030531311305789</v>
+        <v>1.052551115269807</v>
       </c>
       <c r="E19">
-        <v>1.026209509471292</v>
+        <v>1.047820251151803</v>
       </c>
       <c r="F19">
-        <v>1.036152307203487</v>
+        <v>1.056747023150921</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050058877234357</v>
+        <v>1.069182577794713</v>
       </c>
       <c r="J19">
-        <v>1.037272000461015</v>
+        <v>1.062572717756904</v>
       </c>
       <c r="K19">
-        <v>1.043781220585553</v>
+        <v>1.065460455012324</v>
       </c>
       <c r="L19">
-        <v>1.039528462524214</v>
+        <v>1.060801221576656</v>
       </c>
       <c r="M19">
-        <v>1.049313519458783</v>
+        <v>1.069593514616759</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.064203919627367</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.057428853548442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009312136705106</v>
+        <v>1.034157180301637</v>
       </c>
       <c r="D20">
-        <v>1.029494696724734</v>
+        <v>1.050345198615814</v>
       </c>
       <c r="E20">
-        <v>1.025068737323925</v>
+        <v>1.04519230993125</v>
       </c>
       <c r="F20">
-        <v>1.03495628327872</v>
+        <v>1.054165822800303</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049647446845284</v>
+        <v>1.067881656835435</v>
       </c>
       <c r="J20">
-        <v>1.036488751230873</v>
+        <v>1.06043205927958</v>
       </c>
       <c r="K20">
-        <v>1.043038013442758</v>
+        <v>1.06355701227741</v>
       </c>
       <c r="L20">
-        <v>1.038684654884709</v>
+        <v>1.058484475438603</v>
       </c>
       <c r="M20">
-        <v>1.048411109509025</v>
+        <v>1.067318706558558</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.061890081292079</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.056086941068611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004593727244442</v>
+        <v>1.028446683883425</v>
       </c>
       <c r="D21">
-        <v>1.026078105622231</v>
+        <v>1.046342850838728</v>
       </c>
       <c r="E21">
-        <v>1.021311129616108</v>
+        <v>1.040640772994546</v>
       </c>
       <c r="F21">
-        <v>1.03101605938856</v>
+        <v>1.050022886471619</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048279480000344</v>
+        <v>1.065792755374225</v>
       </c>
       <c r="J21">
-        <v>1.033900634291708</v>
+        <v>1.056801395034098</v>
       </c>
       <c r="K21">
-        <v>1.040581708710549</v>
+        <v>1.06049639841149</v>
       </c>
       <c r="L21">
-        <v>1.035899699762523</v>
+        <v>1.054891038256087</v>
       </c>
       <c r="M21">
-        <v>1.045432721113935</v>
+        <v>1.064114732500397</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.059314661259406</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.05392623694488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001568821543274</v>
+        <v>1.024808194357649</v>
       </c>
       <c r="D22">
-        <v>1.023893064784645</v>
+        <v>1.043802953755881</v>
       </c>
       <c r="E22">
-        <v>1.018909691589397</v>
+        <v>1.037761200975076</v>
       </c>
       <c r="F22">
-        <v>1.028497436275043</v>
+        <v>1.047416412478292</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047395486088302</v>
+        <v>1.064460955104196</v>
       </c>
       <c r="J22">
-        <v>1.032240311410172</v>
+        <v>1.054496872509233</v>
       </c>
       <c r="K22">
-        <v>1.039005604090997</v>
+        <v>1.05855389693964</v>
       </c>
       <c r="L22">
-        <v>1.034115626368876</v>
+        <v>1.052619966806173</v>
       </c>
       <c r="M22">
-        <v>1.043524731233085</v>
+        <v>1.06210363930019</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.05772305434918</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.052539704822501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003178056980047</v>
+        <v>1.026720991747712</v>
       </c>
       <c r="D23">
-        <v>1.025054978773362</v>
+        <v>1.045130006747932</v>
       </c>
       <c r="E23">
-        <v>1.020186520373706</v>
+        <v>1.039267630523759</v>
       </c>
       <c r="F23">
-        <v>1.029836616583763</v>
+        <v>1.048782122250652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047866414709941</v>
+        <v>1.065155397242282</v>
       </c>
       <c r="J23">
-        <v>1.033123688483569</v>
+        <v>1.055700754972557</v>
       </c>
       <c r="K23">
-        <v>1.039844202053758</v>
+        <v>1.059564115193379</v>
       </c>
       <c r="L23">
-        <v>1.035064606565864</v>
+        <v>1.053803603586651</v>
       </c>
       <c r="M23">
-        <v>1.044539624011574</v>
+        <v>1.063153515339825</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.058553941145305</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.053244538609188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009390287430592</v>
+        <v>1.034123320595489</v>
       </c>
       <c r="D24">
-        <v>1.029551369502949</v>
+        <v>1.050289525686688</v>
       </c>
       <c r="E24">
-        <v>1.025131095850649</v>
+        <v>1.045122713844111</v>
       </c>
       <c r="F24">
-        <v>1.035021664382358</v>
+        <v>1.054090698808088</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049669984873899</v>
+        <v>1.067835461769739</v>
       </c>
       <c r="J24">
-        <v>1.036531596802396</v>
+        <v>1.060368269842142</v>
       </c>
       <c r="K24">
-        <v>1.04307867059137</v>
+        <v>1.063487531177197</v>
       </c>
       <c r="L24">
-        <v>1.038730800974882</v>
+        <v>1.05840119812605</v>
       </c>
       <c r="M24">
-        <v>1.04846046053981</v>
+        <v>1.067230139594454</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.061780230946541</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.056011135390976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016360309822588</v>
+        <v>1.042388696346644</v>
       </c>
       <c r="D25">
-        <v>1.034616729540312</v>
+        <v>1.056070999298257</v>
       </c>
       <c r="E25">
-        <v>1.030708884426359</v>
+        <v>1.05168651879342</v>
       </c>
       <c r="F25">
-        <v>1.040868694181539</v>
+        <v>1.060050699555417</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051662832325241</v>
+        <v>1.070789079512773</v>
       </c>
       <c r="J25">
-        <v>1.040349355698725</v>
+        <v>1.065569129775487</v>
       </c>
       <c r="K25">
-        <v>1.046700422513944</v>
+        <v>1.06785705680247</v>
       </c>
       <c r="L25">
-        <v>1.042848480086057</v>
+        <v>1.06353215905917</v>
       </c>
       <c r="M25">
-        <v>1.052864053871452</v>
+        <v>1.071783211186503</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.065383571134507</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.059097665391026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048680914502046</v>
+        <v>1.044629157032418</v>
       </c>
       <c r="D2">
-        <v>1.060465210219927</v>
+        <v>1.05566576166145</v>
       </c>
       <c r="E2">
-        <v>1.056685687889239</v>
+        <v>1.053398074434931</v>
       </c>
       <c r="F2">
-        <v>1.064601963877501</v>
+        <v>1.061143130079578</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.072986674555051</v>
+        <v>1.070123850617733</v>
       </c>
       <c r="J2">
-        <v>1.0694970641182</v>
+        <v>1.065552297977857</v>
       </c>
       <c r="K2">
-        <v>1.071141855701342</v>
+        <v>1.066400460266489</v>
       </c>
       <c r="L2">
-        <v>1.067407994866122</v>
+        <v>1.064160431287273</v>
       </c>
       <c r="M2">
-        <v>1.075229092811855</v>
+        <v>1.071811628106951</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.068110660655609</v>
+        <v>1.06540606047887</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.061373196875256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.058029329800036</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.029070316431827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.053159196735994</v>
+        <v>1.04884360745984</v>
       </c>
       <c r="D3">
-        <v>1.063612145219397</v>
+        <v>1.058510796847079</v>
       </c>
       <c r="E3">
-        <v>1.060263458832078</v>
+        <v>1.056710939214208</v>
       </c>
       <c r="F3">
-        <v>1.067859489973878</v>
+        <v>1.064164513176775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.074541994683033</v>
+        <v>1.071491887844702</v>
       </c>
       <c r="J3">
-        <v>1.072298602857183</v>
+        <v>1.068085858651064</v>
       </c>
       <c r="K3">
-        <v>1.073490995719344</v>
+        <v>1.068446002032863</v>
       </c>
       <c r="L3">
-        <v>1.070179227148596</v>
+        <v>1.066666187236428</v>
       </c>
       <c r="M3">
-        <v>1.077691924119687</v>
+        <v>1.074037301479392</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.070059753059539</v>
+        <v>1.067167471553689</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.063031562611077</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.059472764836053</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.029560028207478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056002245051416</v>
+        <v>1.051521659229113</v>
       </c>
       <c r="D4">
-        <v>1.065613459674793</v>
+        <v>1.060322342490651</v>
       </c>
       <c r="E4">
-        <v>1.062539416767815</v>
+        <v>1.058821401527124</v>
       </c>
       <c r="F4">
-        <v>1.069933303952453</v>
+        <v>1.066090367053023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.075520460033138</v>
+        <v>1.072352511299065</v>
       </c>
       <c r="J4">
-        <v>1.074074336936753</v>
+        <v>1.069693340382943</v>
       </c>
       <c r="K4">
-        <v>1.074979587481642</v>
+        <v>1.069743415769996</v>
       </c>
       <c r="L4">
-        <v>1.071937385573255</v>
+        <v>1.068258183460983</v>
       </c>
       <c r="M4">
-        <v>1.079255063613868</v>
+        <v>1.075451575115227</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.071296824085196</v>
+        <v>1.068286734042363</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.064084930438177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.060391048545132</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.029868284564103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057191578275498</v>
+        <v>1.052641895896568</v>
       </c>
       <c r="D5">
-        <v>1.06645386623083</v>
+        <v>1.061083315441533</v>
       </c>
       <c r="E5">
-        <v>1.063494272820452</v>
+        <v>1.059706731730393</v>
       </c>
       <c r="F5">
-        <v>1.070803204055735</v>
+        <v>1.066898239315865</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.075929753705122</v>
+        <v>1.072712402846634</v>
       </c>
       <c r="J5">
-        <v>1.074818868377506</v>
+        <v>1.070367306049458</v>
       </c>
       <c r="K5">
-        <v>1.075605169893842</v>
+        <v>1.070288912736284</v>
       </c>
       <c r="L5">
-        <v>1.072675413955265</v>
+        <v>1.068926353556754</v>
       </c>
       <c r="M5">
-        <v>1.079911023100314</v>
+        <v>1.076045080366989</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.071815950875584</v>
+        <v>1.068756436287399</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.064534184815975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.060784399073048</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.029998765098104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057398793289291</v>
+        <v>1.052836318572033</v>
       </c>
       <c r="D6">
-        <v>1.066603242755972</v>
+        <v>1.061218284089088</v>
       </c>
       <c r="E6">
-        <v>1.063662743986469</v>
+        <v>1.059862003502887</v>
       </c>
       <c r="F6">
-        <v>1.070956072630741</v>
+        <v>1.067039613270202</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.076003554240577</v>
+        <v>1.072777184077403</v>
       </c>
       <c r="J6">
-        <v>1.074951455943117</v>
+        <v>1.070486873064321</v>
       </c>
       <c r="K6">
-        <v>1.07571843500169</v>
+        <v>1.070387667159901</v>
       </c>
       <c r="L6">
-        <v>1.072807444818936</v>
+        <v>1.0690451410323</v>
       </c>
       <c r="M6">
-        <v>1.080027944547203</v>
+        <v>1.076150443284101</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.071908482554247</v>
+        <v>1.068839820859647</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.064622732474383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.060863565023536</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.030024105253919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056040555525961</v>
+        <v>1.051555541446352</v>
       </c>
       <c r="D7">
-        <v>1.065648356617821</v>
+        <v>1.060353012372148</v>
       </c>
       <c r="E7">
-        <v>1.062575761467243</v>
+        <v>1.058852376696341</v>
       </c>
       <c r="F7">
-        <v>1.069964647670999</v>
+        <v>1.066117716005612</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.075540721183964</v>
+        <v>1.072369986327475</v>
       </c>
       <c r="J7">
-        <v>1.074106194059803</v>
+        <v>1.069720822654108</v>
       </c>
       <c r="K7">
-        <v>1.075011366968057</v>
+        <v>1.069770989774201</v>
       </c>
       <c r="L7">
-        <v>1.071970584702685</v>
+        <v>1.068286053245476</v>
       </c>
       <c r="M7">
-        <v>1.079283344359717</v>
+        <v>1.075475886420023</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.071319205493886</v>
+        <v>1.068305974104075</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.064126873938077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.060432037531509</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02987965139853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050234703889744</v>
+        <v>1.04608775616512</v>
       </c>
       <c r="D8">
-        <v>1.061566250746563</v>
+        <v>1.056659266396784</v>
       </c>
       <c r="E8">
-        <v>1.057933513839276</v>
+        <v>1.054549042378095</v>
       </c>
       <c r="F8">
-        <v>1.065735320873604</v>
+        <v>1.062191321307415</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.073537020527958</v>
+        <v>1.070607291513716</v>
       </c>
       <c r="J8">
-        <v>1.070479692807239</v>
+        <v>1.066438579114408</v>
       </c>
       <c r="K8">
-        <v>1.071972174584241</v>
+        <v>1.067122784378755</v>
       </c>
       <c r="L8">
-        <v>1.068382012177156</v>
+        <v>1.065037532626775</v>
       </c>
       <c r="M8">
-        <v>1.076092826532002</v>
+        <v>1.072589955835382</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.068794222766447</v>
+        <v>1.066022034094315</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.061982481374202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.058564547676525</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.029249931345678</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039527192031288</v>
+        <v>1.036029243205846</v>
       </c>
       <c r="D9">
-        <v>1.054054552010771</v>
+        <v>1.049882904354103</v>
       </c>
       <c r="E9">
-        <v>1.04940079782746</v>
+        <v>1.046669435616706</v>
       </c>
       <c r="F9">
-        <v>1.057977623113123</v>
+        <v>1.055012473950918</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.069760730438799</v>
+        <v>1.067286644322725</v>
       </c>
       <c r="J9">
-        <v>1.06375740608601</v>
+        <v>1.060370863151554</v>
       </c>
       <c r="K9">
-        <v>1.066327545157862</v>
+        <v>1.062215379046356</v>
       </c>
       <c r="L9">
-        <v>1.061740185245992</v>
+        <v>1.059048139266198</v>
       </c>
       <c r="M9">
-        <v>1.070195219737496</v>
+        <v>1.067271892504884</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.064126822866088</v>
+        <v>1.061813274636001</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.057988483997483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.055091499260434</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.028056484488505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03218604827434</v>
+        <v>1.02913036838909</v>
       </c>
       <c r="D10">
-        <v>1.048955617363492</v>
+        <v>1.045283450637825</v>
       </c>
       <c r="E10">
-        <v>1.043623638648712</v>
+        <v>1.041331445581403</v>
       </c>
       <c r="F10">
-        <v>1.052752385462655</v>
+        <v>1.050179399234225</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.067160599252113</v>
+        <v>1.064994512485216</v>
       </c>
       <c r="J10">
-        <v>1.059178401013266</v>
+        <v>1.056234061104275</v>
       </c>
       <c r="K10">
-        <v>1.06249385244357</v>
+        <v>1.058880555213618</v>
       </c>
       <c r="L10">
-        <v>1.057247526630556</v>
+        <v>1.054992501641382</v>
       </c>
       <c r="M10">
-        <v>1.066230306479172</v>
+        <v>1.06369813273488</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.061039019951276</v>
+        <v>1.059035145294398</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.055294314447683</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.052751733641315</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.027254088114107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029893205509096</v>
+        <v>1.026824601611355</v>
       </c>
       <c r="D11">
-        <v>1.047587892917697</v>
+        <v>1.043940693478332</v>
       </c>
       <c r="E11">
-        <v>1.042179210565309</v>
+        <v>1.039827514735457</v>
       </c>
       <c r="F11">
-        <v>1.051595590743557</v>
+        <v>1.049011445660222</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.066595642960516</v>
+        <v>1.064437962016946</v>
       </c>
       <c r="J11">
-        <v>1.058073181876934</v>
+        <v>1.055122510018273</v>
       </c>
       <c r="K11">
-        <v>1.061664907770488</v>
+        <v>1.058078946698541</v>
       </c>
       <c r="L11">
-        <v>1.05634723809126</v>
+        <v>1.054035495988006</v>
       </c>
       <c r="M11">
-        <v>1.065605944788176</v>
+        <v>1.063064707153303</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.060970094112264</v>
+        <v>1.058960008727192</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.054740233989603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.052220220729846</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.027219008439176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029377723398503</v>
+        <v>1.026225802061328</v>
       </c>
       <c r="D12">
-        <v>1.047389207203301</v>
+        <v>1.043678020322209</v>
       </c>
       <c r="E12">
-        <v>1.042038458871988</v>
+        <v>1.039568688545021</v>
       </c>
       <c r="F12">
-        <v>1.051576661736762</v>
+        <v>1.048919114638484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.066594335727698</v>
+        <v>1.064392117434944</v>
       </c>
       <c r="J12">
-        <v>1.057988782739286</v>
+        <v>1.054960266542349</v>
       </c>
       <c r="K12">
-        <v>1.061661536514801</v>
+        <v>1.058013676139194</v>
       </c>
       <c r="L12">
-        <v>1.056402277383265</v>
+        <v>1.053975147195856</v>
       </c>
       <c r="M12">
-        <v>1.065778229741202</v>
+        <v>1.063165506428017</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.061425268218359</v>
+        <v>1.059359307476682</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.05473785051693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.052174075190657</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.027320659168689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030228443767409</v>
+        <v>1.026929444067551</v>
       </c>
       <c r="D13">
-        <v>1.048109782068669</v>
+        <v>1.044257945698899</v>
       </c>
       <c r="E13">
-        <v>1.04292483029588</v>
+        <v>1.040279300589616</v>
       </c>
       <c r="F13">
-        <v>1.052466895963355</v>
+        <v>1.049679569309251</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.067052232754982</v>
+        <v>1.064759214736771</v>
       </c>
       <c r="J13">
-        <v>1.058718225500848</v>
+        <v>1.055547645828534</v>
       </c>
       <c r="K13">
-        <v>1.06232874336579</v>
+        <v>1.058542310429451</v>
       </c>
       <c r="L13">
-        <v>1.057231976477636</v>
+        <v>1.054631879500618</v>
       </c>
       <c r="M13">
-        <v>1.066612617945093</v>
+        <v>1.063872053477345</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.06235602292817</v>
+        <v>1.060189498073072</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.055207137589639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.052545141584667</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.027549371164135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.031440810686406</v>
+        <v>1.028012214667623</v>
       </c>
       <c r="D14">
-        <v>1.049029556039955</v>
+        <v>1.045046372790311</v>
       </c>
       <c r="E14">
-        <v>1.044007544567972</v>
+        <v>1.041215474623681</v>
       </c>
       <c r="F14">
-        <v>1.053500204395995</v>
+        <v>1.050598372414043</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.067579620024502</v>
+        <v>1.065203286600245</v>
       </c>
       <c r="J14">
-        <v>1.059595557379751</v>
+        <v>1.056298421474667</v>
       </c>
       <c r="K14">
-        <v>1.063098351972939</v>
+        <v>1.059181925289445</v>
       </c>
       <c r="L14">
-        <v>1.05816061545952</v>
+        <v>1.055415853557854</v>
       </c>
       <c r="M14">
-        <v>1.067494847669545</v>
+        <v>1.064641054535418</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.06322363825517</v>
+        <v>1.060967896795316</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.055752636466802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.052998869018929</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.027766745913961</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032045821448942</v>
+        <v>1.02856949233046</v>
       </c>
       <c r="D15">
-        <v>1.049467411266301</v>
+        <v>1.04543332751884</v>
       </c>
       <c r="E15">
-        <v>1.044510296554582</v>
+        <v>1.041667211833246</v>
       </c>
       <c r="F15">
-        <v>1.053967342637157</v>
+        <v>1.051023291381632</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.067817279030087</v>
+        <v>1.065409115984728</v>
       </c>
       <c r="J15">
-        <v>1.060000254168469</v>
+        <v>1.056656017163539</v>
       </c>
       <c r="K15">
-        <v>1.063445993266461</v>
+        <v>1.059478993217542</v>
       </c>
       <c r="L15">
-        <v>1.058571405436913</v>
+        <v>1.055776110063215</v>
       </c>
       <c r="M15">
-        <v>1.067871873166375</v>
+        <v>1.06497617734056</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.063558566385761</v>
+        <v>1.061269762153535</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.056004131024236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.05321518282069</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.027852668932503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034996335278441</v>
+        <v>1.031364752925199</v>
       </c>
       <c r="D16">
-        <v>1.051495208026566</v>
+        <v>1.047279361444833</v>
       </c>
       <c r="E16">
-        <v>1.04678982714865</v>
+        <v>1.043800157032565</v>
       </c>
       <c r="F16">
-        <v>1.056032005849487</v>
+        <v>1.052950462162312</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.068849920567447</v>
+        <v>1.066330863229437</v>
       </c>
       <c r="J16">
-        <v>1.061814533400403</v>
+        <v>1.058313953696431</v>
       </c>
       <c r="K16">
-        <v>1.064958904231997</v>
+        <v>1.060810074438949</v>
       </c>
       <c r="L16">
-        <v>1.060328366824094</v>
+        <v>1.057386700037819</v>
       </c>
       <c r="M16">
-        <v>1.069424347740868</v>
+        <v>1.066391184539291</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.064747606806935</v>
+        <v>1.062350078549124</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.057076834861739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.054159633940762</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.028157651542763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036627695538662</v>
+        <v>1.032943320405177</v>
       </c>
       <c r="D17">
-        <v>1.052571901349982</v>
+        <v>1.04828414574683</v>
       </c>
       <c r="E17">
-        <v>1.047975234595334</v>
+        <v>1.044947736868771</v>
       </c>
       <c r="F17">
-        <v>1.057073706186534</v>
+        <v>1.053945213312792</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.069364372302884</v>
+        <v>1.066802968315776</v>
       </c>
       <c r="J17">
-        <v>1.062747614679878</v>
+        <v>1.059191857343156</v>
       </c>
       <c r="K17">
-        <v>1.065716934438543</v>
+        <v>1.061495421408075</v>
       </c>
       <c r="L17">
-        <v>1.061191309448873</v>
+        <v>1.058211038488779</v>
       </c>
       <c r="M17">
-        <v>1.070149926989035</v>
+        <v>1.067069175164412</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.065194463791157</v>
+        <v>1.062759083845099</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.057615276705512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.054646938152858</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02827739833259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037241408730967</v>
+        <v>1.033596154671783</v>
       </c>
       <c r="D18">
-        <v>1.052889208990351</v>
+        <v>1.048625550475721</v>
       </c>
       <c r="E18">
-        <v>1.04828035211792</v>
+        <v>1.045315916757557</v>
       </c>
       <c r="F18">
-        <v>1.057277361941711</v>
+        <v>1.054183252594489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.069454591171259</v>
+        <v>1.066911350994935</v>
       </c>
       <c r="J18">
-        <v>1.062967727600808</v>
+        <v>1.05944738126595</v>
       </c>
       <c r="K18">
-        <v>1.065853450528138</v>
+        <v>1.061654602073649</v>
       </c>
       <c r="L18">
-        <v>1.061314680354188</v>
+        <v>1.058395741948563</v>
       </c>
       <c r="M18">
-        <v>1.070175595561857</v>
+        <v>1.067127955986573</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.064982009923425</v>
+        <v>1.062572322340296</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.05770048066517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.054747019149479</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.028232405727292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036963835215304</v>
+        <v>1.03343566301818</v>
       </c>
       <c r="D19">
-        <v>1.052551115269807</v>
+        <v>1.048393849055076</v>
       </c>
       <c r="E19">
-        <v>1.047820251151803</v>
+        <v>1.045003104430851</v>
       </c>
       <c r="F19">
-        <v>1.056747023150921</v>
+        <v>1.053756215165807</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.069182577794713</v>
+        <v>1.066709248061169</v>
       </c>
       <c r="J19">
-        <v>1.062572717756904</v>
+        <v>1.059164812177382</v>
       </c>
       <c r="K19">
-        <v>1.065460455012324</v>
+        <v>1.061366090655042</v>
       </c>
       <c r="L19">
-        <v>1.060801221576656</v>
+        <v>1.058027122745702</v>
       </c>
       <c r="M19">
-        <v>1.069593514616759</v>
+        <v>1.066647439150407</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.064203919627367</v>
+        <v>1.061873808929002</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.057428853548442</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.054549893534563</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02805400200623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034157180301637</v>
+        <v>1.030972444540459</v>
       </c>
       <c r="D20">
-        <v>1.050345198615814</v>
+        <v>1.046530888694736</v>
       </c>
       <c r="E20">
-        <v>1.04519230993125</v>
+        <v>1.042768660047156</v>
       </c>
       <c r="F20">
-        <v>1.054165822800303</v>
+        <v>1.051478519446739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.067881656835435</v>
+        <v>1.065627361630443</v>
       </c>
       <c r="J20">
-        <v>1.06043205927958</v>
+        <v>1.05735951471774</v>
       </c>
       <c r="K20">
-        <v>1.06355701227741</v>
+        <v>1.059802083715602</v>
       </c>
       <c r="L20">
-        <v>1.058484475438603</v>
+        <v>1.056098970383823</v>
       </c>
       <c r="M20">
-        <v>1.067318706558558</v>
+        <v>1.064672795538945</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.061890081292079</v>
+        <v>1.05979617554632</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.056086941068611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.053448357630762</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.027491303458837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028446683883425</v>
+        <v>1.025641471411854</v>
       </c>
       <c r="D21">
-        <v>1.046342850838728</v>
+        <v>1.042946682126489</v>
       </c>
       <c r="E21">
-        <v>1.040640772994546</v>
+        <v>1.038602417760296</v>
       </c>
       <c r="F21">
-        <v>1.050022886471619</v>
+        <v>1.047670886399007</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.065792755374225</v>
+        <v>1.063797385465762</v>
       </c>
       <c r="J21">
-        <v>1.056801395034098</v>
+        <v>1.054104920130613</v>
       </c>
       <c r="K21">
-        <v>1.06049639841149</v>
+        <v>1.057157670521112</v>
       </c>
       <c r="L21">
-        <v>1.054891038256087</v>
+        <v>1.052887590320086</v>
       </c>
       <c r="M21">
-        <v>1.064114732500397</v>
+        <v>1.061802102934634</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.059314661259406</v>
+        <v>1.057484414024235</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.05392623694488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.051582244313974</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.026819371884768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024808194357649</v>
+        <v>1.022244150657553</v>
       </c>
       <c r="D22">
-        <v>1.043802953755881</v>
+        <v>1.040671529450217</v>
       </c>
       <c r="E22">
-        <v>1.037761200975076</v>
+        <v>1.035966091334051</v>
       </c>
       <c r="F22">
-        <v>1.047416412478292</v>
+        <v>1.045276763573639</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.064460955104196</v>
+        <v>1.062629245619331</v>
       </c>
       <c r="J22">
-        <v>1.054496872509233</v>
+        <v>1.052038150298459</v>
       </c>
       <c r="K22">
-        <v>1.05855389693964</v>
+        <v>1.055478153906601</v>
       </c>
       <c r="L22">
-        <v>1.052619966806173</v>
+        <v>1.050857208228194</v>
       </c>
       <c r="M22">
-        <v>1.06210363930019</v>
+        <v>1.060001649991249</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.05772305434918</v>
+        <v>1.056059507473858</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.052539704822501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.050380338018574</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.026393598932984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026720991747712</v>
+        <v>1.02403298274884</v>
       </c>
       <c r="D23">
-        <v>1.045130006747932</v>
+        <v>1.041861662928395</v>
       </c>
       <c r="E23">
-        <v>1.039267630523759</v>
+        <v>1.037348689329773</v>
       </c>
       <c r="F23">
-        <v>1.048782122250652</v>
+        <v>1.046533453965775</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.065155397242282</v>
+        <v>1.0632392793173</v>
       </c>
       <c r="J23">
-        <v>1.055700754972557</v>
+        <v>1.053119844189821</v>
       </c>
       <c r="K23">
-        <v>1.059564115193379</v>
+        <v>1.056352379060534</v>
       </c>
       <c r="L23">
-        <v>1.053803603586651</v>
+        <v>1.051918330091751</v>
       </c>
       <c r="M23">
-        <v>1.063153515339825</v>
+        <v>1.060943394998355</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.058553941145305</v>
+        <v>1.05680481949705</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.053244538609188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.050988071687794</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.026610472993424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034123320595489</v>
+        <v>1.03095920286303</v>
       </c>
       <c r="D24">
-        <v>1.050289525686688</v>
+        <v>1.04649326953629</v>
       </c>
       <c r="E24">
-        <v>1.045122713844111</v>
+        <v>1.042725453207552</v>
       </c>
       <c r="F24">
-        <v>1.054090698808088</v>
+        <v>1.051421659817493</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.067835461769739</v>
+        <v>1.065593236924102</v>
       </c>
       <c r="J24">
-        <v>1.060368269842142</v>
+        <v>1.057315468932299</v>
       </c>
       <c r="K24">
-        <v>1.063487531177197</v>
+        <v>1.059750306883539</v>
       </c>
       <c r="L24">
-        <v>1.05840119812605</v>
+        <v>1.056041624161987</v>
       </c>
       <c r="M24">
-        <v>1.067230139594454</v>
+        <v>1.064602165970753</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.061780230946541</v>
+        <v>1.059700422338915</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.056011135390976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.053382375434201</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.027456548501631</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042388696346644</v>
+        <v>1.038710005494472</v>
       </c>
       <c r="D25">
-        <v>1.056070999298257</v>
+        <v>1.05169729995105</v>
       </c>
       <c r="E25">
-        <v>1.05168651879342</v>
+        <v>1.048771527199893</v>
       </c>
       <c r="F25">
-        <v>1.060050699555417</v>
+        <v>1.05692468167158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.070789079512773</v>
+        <v>1.068189595529281</v>
       </c>
       <c r="J25">
-        <v>1.065569129775487</v>
+        <v>1.062001338175571</v>
       </c>
       <c r="K25">
-        <v>1.06785705680247</v>
+        <v>1.063542792939457</v>
       </c>
       <c r="L25">
-        <v>1.06353215905917</v>
+        <v>1.06065712804833</v>
       </c>
       <c r="M25">
-        <v>1.071783211186503</v>
+        <v>1.068699210380058</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.065383571134507</v>
+        <v>1.062942868069334</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.059097665391026</v>
+        <v>1.056060621274466</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02838957938835</v>
       </c>
     </row>
   </sheetData>
